--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807161.749720498</v>
+        <v>1803050.149583704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23192031.15469214</v>
+        <v>23192031.15469216</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6807719.433764391</v>
+        <v>6807719.433764393</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.7182355643984</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.922077114734</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>372.0185583044239</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>388.4193756224032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>374.2415295781192</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>258.9290903732878</v>
+        <v>85.52923914244546</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.98125842540011</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>317.938446813438</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>368.5265740179447</v>
       </c>
     </row>
     <row r="12">
@@ -1454,19 +1454,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D12" t="n">
-        <v>87.32745389935532</v>
+        <v>87.32745389935531</v>
       </c>
       <c r="E12" t="n">
         <v>90.88715554414912</v>
       </c>
       <c r="F12" t="n">
-        <v>79.4695487158743</v>
+        <v>79.46954871587428</v>
       </c>
       <c r="G12" t="n">
         <v>76.45005940447493</v>
       </c>
       <c r="H12" t="n">
-        <v>31.31066418187191</v>
+        <v>31.3106641818719</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>58.64537279701977</v>
+        <v>58.6453727970196</v>
       </c>
       <c r="T12" t="n">
-        <v>125.0372004022841</v>
+        <v>125.037200402284</v>
       </c>
       <c r="U12" t="n">
-        <v>166.9062138805805</v>
+        <v>166.9062138805808</v>
       </c>
       <c r="V12" t="n">
         <v>183.1736794334503</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>129.4989659268729</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9009746769175</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.2805891814261</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.706405678443</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>140.5024235323907</v>
+        <v>66.09437104468813</v>
       </c>
       <c r="T13" t="n">
         <v>204.9217387018491</v>
@@ -1587,16 +1587,16 @@
         <v>251.5205300934088</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>242.7461553064271</v>
       </c>
       <c r="W13" t="n">
         <v>247.8782355427682</v>
       </c>
       <c r="X13" t="n">
-        <v>157.5984678922085</v>
+        <v>207.5596912154673</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>194.0876093216768</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>179.3439020378717</v>
       </c>
       <c r="C14" t="n">
-        <v>377.6226124764164</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.796081024826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.98125842540011</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>317.938446813438</v>
+        <v>317.9384468134379</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4986290116819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.4992700057854</v>
+        <v>110.4992700057846</v>
       </c>
       <c r="C15" t="n">
         <v>104.2543882350976</v>
       </c>
       <c r="D15" t="n">
-        <v>87.32745389935532</v>
+        <v>87.32745389935531</v>
       </c>
       <c r="E15" t="n">
-        <v>90.88715554414912</v>
+        <v>90.8871555441491</v>
       </c>
       <c r="F15" t="n">
-        <v>79.4695487158743</v>
+        <v>79.46954871587428</v>
       </c>
       <c r="G15" t="n">
-        <v>76.45005940447493</v>
+        <v>76.4500594044749</v>
       </c>
       <c r="H15" t="n">
-        <v>31.3106641818719</v>
+        <v>31.31066418187189</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>58.64537279701977</v>
+        <v>58.64537279701982</v>
       </c>
       <c r="T15" t="n">
-        <v>125.0372004022841</v>
+        <v>125.037200402284</v>
       </c>
       <c r="U15" t="n">
-        <v>166.9062138805802</v>
+        <v>166.9062138805803</v>
       </c>
       <c r="V15" t="n">
         <v>183.1736794334503</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>157.4219770266578</v>
       </c>
       <c r="C16" t="n">
-        <v>5.292926981987465</v>
+        <v>140.9817064104545</v>
       </c>
       <c r="D16" t="n">
         <v>129.4989659268729</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>130.9009746769175</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.5840823270685</v>
       </c>
       <c r="G16" t="n">
         <v>136.2805891814261</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I16" t="n">
-        <v>59.81967799143695</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>15.70640567844297</v>
       </c>
       <c r="S16" t="n">
         <v>140.5024235323907</v>
@@ -1821,7 +1821,7 @@
         <v>204.9217387018491</v>
       </c>
       <c r="U16" t="n">
-        <v>251.5205300934088</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>242.7461553064271</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>207.5596912154673</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.0876093216768</v>
+        <v>26.94592508987652</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>377.7182355643984</v>
       </c>
       <c r="C17" t="n">
-        <v>377.6226124764164</v>
+        <v>364.3153576159155</v>
       </c>
       <c r="D17" t="n">
-        <v>372.0185583044239</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.796081024826</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>388.4193756224031</v>
       </c>
       <c r="G17" t="n">
-        <v>374.2415295781192</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.98125842540011</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>70.62937232958537</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D18" t="n">
-        <v>87.32745389935532</v>
+        <v>87.32745389935531</v>
       </c>
       <c r="E18" t="n">
-        <v>90.88715554414912</v>
+        <v>90.8871555441491</v>
       </c>
       <c r="F18" t="n">
-        <v>79.46954871587508</v>
+        <v>79.46954871587428</v>
       </c>
       <c r="G18" t="n">
-        <v>76.45005940447493</v>
+        <v>76.45005940447491</v>
       </c>
       <c r="H18" t="n">
-        <v>31.31066418187191</v>
+        <v>31.31066418187241</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>58.64537279701977</v>
+        <v>58.64537279701976</v>
       </c>
       <c r="T18" t="n">
         <v>125.0372004022841</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.4219770266578</v>
+        <v>105.261013945133</v>
       </c>
       <c r="C19" t="n">
         <v>140.9817064104545</v>
       </c>
       <c r="D19" t="n">
-        <v>29.88409633906539</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>130.9009746769175</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.70640567844299</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>204.9217387018491</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>251.5205300934088</v>
       </c>
       <c r="V19" t="n">
         <v>242.7461553064271</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>247.8782355427682</v>
       </c>
       <c r="X19" t="n">
-        <v>207.5596912154673</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.0876093216768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.7182355643984</v>
+        <v>364.4109807038973</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.796081024826</v>
       </c>
       <c r="F20" t="n">
-        <v>388.4193756224032</v>
+        <v>388.4193756224031</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.98125842540011</v>
       </c>
       <c r="T20" t="n">
-        <v>182.8342052533804</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>351.521965552737</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.736526260024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D21" t="n">
-        <v>87.32745389935532</v>
+        <v>87.32745389935531</v>
       </c>
       <c r="E21" t="n">
-        <v>90.88715554414912</v>
+        <v>90.8871555441491</v>
       </c>
       <c r="F21" t="n">
-        <v>79.4695487158743</v>
+        <v>79.46954871587428</v>
       </c>
       <c r="G21" t="n">
-        <v>76.45005940447493</v>
+        <v>76.45005940447491</v>
       </c>
       <c r="H21" t="n">
-        <v>31.31066418187223</v>
+        <v>31.31066418187241</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>58.64537279701977</v>
+        <v>58.64537279701976</v>
       </c>
       <c r="T21" t="n">
         <v>125.0372004022841</v>
@@ -2241,7 +2241,7 @@
         <v>157.4219770266578</v>
       </c>
       <c r="C22" t="n">
-        <v>140.9817064104545</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>129.4989659268729</v>
@@ -2250,7 +2250,7 @@
         <v>130.9009746769175</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.5840823270685</v>
       </c>
       <c r="G22" t="n">
         <v>136.2805891814261</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.70640567844299</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>140.5024235323907</v>
@@ -2295,19 +2295,19 @@
         <v>204.9217387018491</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>251.5205300934088</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>210.1885534016957</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.0876093216768</v>
+        <v>174.8596623917928</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>377.6226124764164</v>
       </c>
       <c r="D23" t="n">
-        <v>372.0185583044239</v>
+        <v>372.0185583044238</v>
       </c>
       <c r="E23" t="n">
-        <v>298.6651880018244</v>
+        <v>381.796081024826</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>388.4193756224031</v>
       </c>
       <c r="G23" t="n">
         <v>374.2415295781192</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.98125842540011</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>225.9292553688763</v>
+        <v>113.2220870518692</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>317.9384468134379</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>368.2362315492908</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>368.5265740179447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>129.4989659268729</v>
       </c>
       <c r="E25" t="n">
-        <v>9.990796645989352</v>
+        <v>85.51688031586943</v>
       </c>
       <c r="F25" t="n">
         <v>134.5840823270685</v>
@@ -2496,7 +2496,7 @@
         <v>111.7393643945587</v>
       </c>
       <c r="I25" t="n">
-        <v>59.81967799143695</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.70640567844299</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>140.5024235323907</v>
@@ -2557,22 +2557,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>343.438453513502</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>171.9650116051224</v>
+        <v>402.6422618815654</v>
       </c>
       <c r="H26" t="n">
-        <v>287.3298226767339</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2727,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6813214848723</v>
       </c>
       <c r="H28" t="n">
         <v>140.1400966980049</v>
       </c>
       <c r="I28" t="n">
-        <v>88.22041029488311</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10713798188915</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.9031558358369</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3224710052953</v>
+        <v>66.60709224221451</v>
       </c>
       <c r="U28" t="n">
         <v>279.9212623968549</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>257.5091747840432</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6422618815654</v>
+        <v>100.1246079925104</v>
       </c>
       <c r="H29" t="n">
-        <v>287.3298226767339</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.38199072884629</v>
       </c>
       <c r="T29" t="n">
         <v>211.2349375568265</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3299876723225</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.363813533468699</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>76.89212291958206</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2961,7 +2961,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6322130250058</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D32" t="n">
         <v>372.0185583044239</v>
       </c>
       <c r="E32" t="n">
-        <v>243.5326898334809</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>388.4193756224032</v>
       </c>
       <c r="G32" t="n">
-        <v>374.2415295781193</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H32" t="n">
         <v>258.9290903732877</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>59.98125842540014</v>
       </c>
       <c r="T32" t="n">
         <v>182.8342052533804</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>123.5769232764483</v>
       </c>
       <c r="V32" t="n">
-        <v>317.938446813438</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>368.2362315492909</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>368.5265740179447</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>140.9817064104545</v>
       </c>
       <c r="D34" t="n">
-        <v>129.498965926873</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E34" t="n">
         <v>130.9009746769176</v>
@@ -3204,10 +3204,10 @@
         <v>136.2805891814262</v>
       </c>
       <c r="H34" t="n">
-        <v>111.7393643945588</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I34" t="n">
-        <v>59.81967799143699</v>
+        <v>59.81967799143696</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.70640567844303</v>
+        <v>15.70640567844301</v>
       </c>
       <c r="S34" t="n">
         <v>140.5024235323908</v>
       </c>
       <c r="T34" t="n">
-        <v>204.9217387018492</v>
+        <v>204.9217387018491</v>
       </c>
       <c r="U34" t="n">
         <v>251.5205300934084</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C35" t="n">
-        <v>377.6226124764165</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>372.0185583044239</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H35" t="n">
-        <v>258.9290903732879</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.98125842540016</v>
+        <v>59.98125842540014</v>
       </c>
       <c r="T35" t="n">
-        <v>182.8342052533804</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>225.9292553688764</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>317.938446813438</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.9954395421431</v>
+        <v>10.6481139041849</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D36" t="n">
-        <v>87.32745389935536</v>
+        <v>87.32745389935533</v>
       </c>
       <c r="E36" t="n">
-        <v>90.88715554414918</v>
+        <v>90.88715554414914</v>
       </c>
       <c r="F36" t="n">
-        <v>79.46954871587434</v>
+        <v>79.46954871587444</v>
       </c>
       <c r="G36" t="n">
-        <v>76.45005940447497</v>
+        <v>76.45005940447494</v>
       </c>
       <c r="H36" t="n">
-        <v>31.31066418187196</v>
+        <v>31.31066418187192</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.64537279701937</v>
+        <v>58.64537279701979</v>
       </c>
       <c r="T36" t="n">
         <v>125.0372004022841</v>
       </c>
       <c r="U36" t="n">
-        <v>166.9062138805803</v>
+        <v>166.9062138805802</v>
       </c>
       <c r="V36" t="n">
         <v>183.1736794334504</v>
@@ -3413,7 +3413,7 @@
         <v>146.16198973905</v>
       </c>
       <c r="Y36" t="n">
-        <v>129.4072077363622</v>
+        <v>129.4072077363621</v>
       </c>
     </row>
     <row r="37">
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>130.9009746769176</v>
       </c>
       <c r="F37" t="n">
         <v>134.5840823270685</v>
       </c>
       <c r="G37" t="n">
-        <v>136.2805891814262</v>
+        <v>71.01611651915128</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1514382380415076</v>
+        <v>59.81967799143696</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>204.9217387018491</v>
       </c>
       <c r="U37" t="n">
         <v>251.5205300934088</v>
@@ -3486,13 +3486,13 @@
         <v>242.7461553064271</v>
       </c>
       <c r="W37" t="n">
-        <v>247.8782355427682</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>207.5596912154673</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.0876093216768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1494561081442</v>
+        <v>181.4811523625353</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.7960810248262</v>
+        <v>381.7960810248261</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>388.4193756224032</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>59.98125842540014</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>182.8342052533804</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>351.521965552737</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>368.2362315492909</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>368.5265740179447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D39" t="n">
-        <v>87.32745389935536</v>
+        <v>87.32745389935533</v>
       </c>
       <c r="E39" t="n">
-        <v>90.88715554414918</v>
+        <v>90.88715554414914</v>
       </c>
       <c r="F39" t="n">
-        <v>79.46954871587434</v>
+        <v>79.46954871587431</v>
       </c>
       <c r="G39" t="n">
-        <v>76.45005940447498</v>
+        <v>76.45005940447494</v>
       </c>
       <c r="H39" t="n">
-        <v>31.31066418187196</v>
+        <v>31.31066418187192</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.64537279701982</v>
+        <v>58.64537279701979</v>
       </c>
       <c r="T39" t="n">
         <v>125.037200402284</v>
       </c>
       <c r="U39" t="n">
-        <v>166.9062138805799</v>
+        <v>166.9062138805801</v>
       </c>
       <c r="V39" t="n">
         <v>183.1736794334504</v>
@@ -3650,7 +3650,7 @@
         <v>146.16198973905</v>
       </c>
       <c r="Y39" t="n">
-        <v>129.4072077363622</v>
+        <v>129.4072077363621</v>
       </c>
     </row>
     <row r="40">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9817064104545</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>129.498965926873</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>130.9009746769176</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>32.79569540299129</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>111.7393643945588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>59.819677991437</v>
+        <v>59.81967799143696</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.70640567844304</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>140.5024235323908</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.9356981454647</v>
+        <v>204.9217387018491</v>
       </c>
       <c r="U40" t="n">
         <v>251.5205300934088</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.7461553064271</v>
       </c>
       <c r="W40" t="n">
         <v>247.8782355427682</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.7182355643985</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>377.6226124764165</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>209.1641238184251</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.7960810248262</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>258.9290903732877</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.67531859531324</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>225.9292553688764</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>317.938446813438</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>351.521965552737</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>110.4992700057846</v>
       </c>
       <c r="C42" t="n">
-        <v>104.2543882350968</v>
+        <v>104.2543882350976</v>
       </c>
       <c r="D42" t="n">
-        <v>87.32745389935536</v>
+        <v>87.32745389935533</v>
       </c>
       <c r="E42" t="n">
-        <v>90.88715554414918</v>
+        <v>90.88715554414914</v>
       </c>
       <c r="F42" t="n">
-        <v>79.46954871587434</v>
+        <v>79.46954871587431</v>
       </c>
       <c r="G42" t="n">
-        <v>76.45005940447497</v>
+        <v>76.45005940447494</v>
       </c>
       <c r="H42" t="n">
-        <v>31.31066418187196</v>
+        <v>31.31066418187205</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.64537279701982</v>
+        <v>58.64537279701979</v>
       </c>
       <c r="T42" t="n">
         <v>125.0372004022841</v>
       </c>
       <c r="U42" t="n">
-        <v>166.9062138805803</v>
+        <v>166.9062138805802</v>
       </c>
       <c r="V42" t="n">
         <v>183.1736794334504</v>
@@ -3887,7 +3887,7 @@
         <v>146.16198973905</v>
       </c>
       <c r="Y42" t="n">
-        <v>129.4072077363622</v>
+        <v>129.4072077363621</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>157.4219770266578</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9817064104545</v>
+        <v>6.274693053251058</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>59.81967799143696</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>140.5024235323908</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>204.9217387018492</v>
+        <v>204.9217387018491</v>
       </c>
       <c r="U43" t="n">
         <v>251.5205300934088</v>
@@ -3960,10 +3960,10 @@
         <v>242.7461553064271</v>
       </c>
       <c r="W43" t="n">
-        <v>240.0481678600773</v>
+        <v>247.8782355427682</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>207.5596912154673</v>
       </c>
       <c r="Y43" t="n">
         <v>194.0876093216768</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>388.4193756224032</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>374.2415295781193</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.98125842540016</v>
+        <v>59.98125842540014</v>
       </c>
       <c r="T44" t="n">
-        <v>182.8342052533804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>225.9292553688764</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>340.8246840047629</v>
+        <v>23.62210220577145</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>368.5265740179447</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>104.2543882350976</v>
       </c>
       <c r="D45" t="n">
-        <v>87.32745389935536</v>
+        <v>87.32745389935533</v>
       </c>
       <c r="E45" t="n">
-        <v>90.88715554414918</v>
+        <v>90.88715554414914</v>
       </c>
       <c r="F45" t="n">
-        <v>79.46954871587434</v>
+        <v>79.46954871587431</v>
       </c>
       <c r="G45" t="n">
-        <v>76.45005940447498</v>
+        <v>76.45005940447494</v>
       </c>
       <c r="H45" t="n">
-        <v>31.31066418187196</v>
+        <v>31.31066418187192</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.64537279701982</v>
+        <v>58.64537279701979</v>
       </c>
       <c r="T45" t="n">
         <v>125.0372004022841</v>
       </c>
       <c r="U45" t="n">
-        <v>166.9062138805792</v>
+        <v>166.9062138805803</v>
       </c>
       <c r="V45" t="n">
         <v>183.1736794334504</v>
@@ -4124,7 +4124,7 @@
         <v>146.16198973905</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.4072077363622</v>
+        <v>129.4072077363621</v>
       </c>
     </row>
     <row r="46">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9817064104545</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E46" t="n">
         <v>130.9009746769176</v>
       </c>
       <c r="F46" t="n">
-        <v>16.05298215343109</v>
+        <v>134.5840823270685</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>140.5024235323908</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>182.8595764525304</v>
       </c>
       <c r="U46" t="n">
         <v>251.5205300934088</v>
@@ -4200,10 +4200,10 @@
         <v>247.8782355427682</v>
       </c>
       <c r="X46" t="n">
-        <v>207.5596912154673</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0876093216768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.988288393973</v>
+        <v>494.579929563998</v>
       </c>
       <c r="C11" t="n">
-        <v>1064.319523631615</v>
+        <v>494.579929563998</v>
       </c>
       <c r="D11" t="n">
-        <v>1064.319523631615</v>
+        <v>118.8036080443779</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.319523631615</v>
+        <v>118.8036080443779</v>
       </c>
       <c r="F11" t="n">
-        <v>671.9767199726219</v>
+        <v>118.8036080443779</v>
       </c>
       <c r="G11" t="n">
-        <v>293.9549729240166</v>
+        <v>118.8036080443779</v>
       </c>
       <c r="H11" t="n">
         <v>32.41043719342286</v>
@@ -5068,25 +5068,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S11" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T11" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="U11" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="V11" t="n">
-        <v>1620.521859671143</v>
+        <v>1238.784783672317</v>
       </c>
       <c r="W11" t="n">
-        <v>1620.521859671143</v>
+        <v>1238.784783672317</v>
       </c>
       <c r="X11" t="n">
-        <v>1620.521859671143</v>
+        <v>866.8289942285886</v>
       </c>
       <c r="Y11" t="n">
-        <v>1620.521859671143</v>
+        <v>494.579929563998</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>506.8541442447593</v>
       </c>
       <c r="C12" t="n">
-        <v>401.5466813810244</v>
+        <v>401.5466813810243</v>
       </c>
       <c r="D12" t="n">
         <v>313.3371319877361</v>
@@ -5117,31 +5117,31 @@
         <v>32.41043719342286</v>
       </c>
       <c r="I12" t="n">
-        <v>32.41043719342286</v>
+        <v>48.52648125204033</v>
       </c>
       <c r="J12" t="n">
-        <v>325.2496512376546</v>
+        <v>341.3656952962721</v>
       </c>
       <c r="K12" t="n">
-        <v>440.9431014715921</v>
+        <v>582.7130797706477</v>
       </c>
       <c r="L12" t="n">
-        <v>615.2678519375003</v>
+        <v>757.0378302365559</v>
       </c>
       <c r="M12" t="n">
-        <v>826.5361449737004</v>
+        <v>968.3061232727561</v>
       </c>
       <c r="N12" t="n">
-        <v>1049.23158226902</v>
+        <v>1191.001560568076</v>
       </c>
       <c r="O12" t="n">
-        <v>1243.955383253639</v>
+        <v>1385.725361552694</v>
       </c>
       <c r="P12" t="n">
-        <v>1392.40850886881</v>
+        <v>1534.178487167865</v>
       </c>
       <c r="Q12" t="n">
-        <v>1525.228479190018</v>
+        <v>1613.198195666999</v>
       </c>
       <c r="R12" t="n">
         <v>1620.521859671143</v>
@@ -5150,7 +5150,7 @@
         <v>1561.284109371123</v>
       </c>
       <c r="T12" t="n">
-        <v>1434.983906944573</v>
+        <v>1434.983906944574</v>
       </c>
       <c r="U12" t="n">
         <v>1266.391771711664</v>
@@ -5159,13 +5159,13 @@
         <v>1081.367853092017</v>
       </c>
       <c r="W12" t="n">
-        <v>896.8222932156651</v>
+        <v>896.822293215665</v>
       </c>
       <c r="X12" t="n">
-        <v>749.1839197418773</v>
+        <v>749.1839197418772</v>
       </c>
       <c r="Y12" t="n">
-        <v>618.4695684930266</v>
+        <v>618.4695684930265</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>433.097841016874</v>
+        <v>32.41043719342286</v>
       </c>
       <c r="C13" t="n">
-        <v>433.097841016874</v>
+        <v>32.41043719342286</v>
       </c>
       <c r="D13" t="n">
-        <v>302.2908047271034</v>
+        <v>32.41043719342286</v>
       </c>
       <c r="E13" t="n">
-        <v>170.0675979827422</v>
+        <v>32.41043719342286</v>
       </c>
       <c r="F13" t="n">
-        <v>170.0675979827422</v>
+        <v>32.41043719342286</v>
       </c>
       <c r="G13" t="n">
         <v>32.41043719342286</v>
@@ -5199,19 +5199,19 @@
         <v>32.41043719342286</v>
       </c>
       <c r="J13" t="n">
-        <v>44.24494452632432</v>
+        <v>109.2463081576607</v>
       </c>
       <c r="K13" t="n">
-        <v>165.9517797143707</v>
+        <v>366.9216202600413</v>
       </c>
       <c r="L13" t="n">
-        <v>557.8107960001319</v>
+        <v>556.4378867441078</v>
       </c>
       <c r="M13" t="n">
-        <v>958.8899562687398</v>
+        <v>957.5170470127157</v>
       </c>
       <c r="N13" t="n">
-        <v>1043.521447862583</v>
+        <v>1358.596207281324</v>
       </c>
       <c r="O13" t="n">
         <v>1428.540286760455</v>
@@ -5223,28 +5223,28 @@
         <v>1620.521859671143</v>
       </c>
       <c r="R13" t="n">
-        <v>1604.656803430291</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="S13" t="n">
-        <v>1462.735163498583</v>
+        <v>1553.759868716912</v>
       </c>
       <c r="T13" t="n">
-        <v>1255.74350824419</v>
+        <v>1346.768213462519</v>
       </c>
       <c r="U13" t="n">
-        <v>1001.682366735697</v>
+        <v>1092.707071954026</v>
       </c>
       <c r="V13" t="n">
-        <v>1001.682366735697</v>
+        <v>847.5089352808673</v>
       </c>
       <c r="W13" t="n">
-        <v>751.3003106318905</v>
+        <v>597.126879177061</v>
       </c>
       <c r="X13" t="n">
-        <v>592.1099390235991</v>
+        <v>387.4706254240638</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.1099390235991</v>
+        <v>191.4225352001479</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1053.413702272032</v>
+        <v>1057.629327068406</v>
       </c>
       <c r="C14" t="n">
-        <v>671.9767199726218</v>
+        <v>1057.629327068406</v>
       </c>
       <c r="D14" t="n">
-        <v>671.9767199726218</v>
+        <v>1057.629327068406</v>
       </c>
       <c r="E14" t="n">
         <v>671.9767199726218</v>
@@ -5272,58 +5272,58 @@
         <v>293.9549729240165</v>
       </c>
       <c r="H14" t="n">
-        <v>32.41043719342287</v>
+        <v>32.41043719342285</v>
       </c>
       <c r="I14" t="n">
-        <v>32.41043719342287</v>
+        <v>32.41043719342285</v>
       </c>
       <c r="J14" t="n">
-        <v>127.7641835428844</v>
+        <v>127.7641835428843</v>
       </c>
       <c r="K14" t="n">
-        <v>291.2238313015496</v>
+        <v>291.2238313015494</v>
       </c>
       <c r="L14" t="n">
-        <v>508.955191989422</v>
+        <v>508.9551919894217</v>
       </c>
       <c r="M14" t="n">
-        <v>764.0494052613875</v>
+        <v>764.0494052613872</v>
       </c>
       <c r="N14" t="n">
-        <v>1025.13990199031</v>
+        <v>1025.139901990309</v>
       </c>
       <c r="O14" t="n">
-        <v>1266.279473591382</v>
+        <v>1266.279473591381</v>
       </c>
       <c r="P14" t="n">
-        <v>1458.113613643858</v>
+        <v>1458.113613643857</v>
       </c>
       <c r="Q14" t="n">
-        <v>1582.663101322827</v>
+        <v>1582.663101322826</v>
       </c>
       <c r="R14" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="S14" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948516</v>
       </c>
       <c r="T14" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948516</v>
       </c>
       <c r="U14" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948516</v>
       </c>
       <c r="V14" t="n">
-        <v>1299.371913394943</v>
+        <v>1238.784783672317</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.371913394943</v>
+        <v>1238.784783672317</v>
       </c>
       <c r="X14" t="n">
-        <v>1299.371913394943</v>
+        <v>1238.784783672317</v>
       </c>
       <c r="Y14" t="n">
-        <v>1053.413702272032</v>
+        <v>1238.784783672317</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>506.8541442447594</v>
       </c>
       <c r="C15" t="n">
-        <v>401.5466813810245</v>
+        <v>401.5466813810244</v>
       </c>
       <c r="D15" t="n">
         <v>313.3371319877363</v>
@@ -5345,40 +5345,40 @@
         <v>221.5319243673836</v>
       </c>
       <c r="F15" t="n">
-        <v>141.2596529372075</v>
+        <v>141.2596529372076</v>
       </c>
       <c r="G15" t="n">
-        <v>64.0373707104652</v>
+        <v>64.03737071046515</v>
       </c>
       <c r="H15" t="n">
-        <v>32.41043719342287</v>
+        <v>32.41043719342285</v>
       </c>
       <c r="I15" t="n">
-        <v>32.41043719342287</v>
+        <v>48.52648125204033</v>
       </c>
       <c r="J15" t="n">
-        <v>325.2496512376547</v>
+        <v>341.3656952962722</v>
       </c>
       <c r="K15" t="n">
-        <v>440.9431014715922</v>
+        <v>457.0591455302096</v>
       </c>
       <c r="L15" t="n">
-        <v>615.2678519375005</v>
+        <v>631.3838959961179</v>
       </c>
       <c r="M15" t="n">
-        <v>826.5361449737006</v>
+        <v>842.6521890323181</v>
       </c>
       <c r="N15" t="n">
-        <v>1049.231582269021</v>
+        <v>1065.347626327638</v>
       </c>
       <c r="O15" t="n">
-        <v>1243.955383253639</v>
+        <v>1260.071427312257</v>
       </c>
       <c r="P15" t="n">
-        <v>1392.40850886881</v>
+        <v>1408.524552927428</v>
       </c>
       <c r="Q15" t="n">
-        <v>1525.228479190018</v>
+        <v>1525.228479190017</v>
       </c>
       <c r="R15" t="n">
         <v>1620.521859671143</v>
@@ -5387,22 +5387,22 @@
         <v>1561.284109371123</v>
       </c>
       <c r="T15" t="n">
-        <v>1434.983906944574</v>
+        <v>1434.983906944573</v>
       </c>
       <c r="U15" t="n">
-        <v>1266.391771711665</v>
+        <v>1266.391771711664</v>
       </c>
       <c r="V15" t="n">
-        <v>1081.367853092018</v>
+        <v>1081.367853092017</v>
       </c>
       <c r="W15" t="n">
-        <v>896.822293215666</v>
+        <v>896.8222932156651</v>
       </c>
       <c r="X15" t="n">
-        <v>749.1839197418782</v>
+        <v>749.1839197418773</v>
       </c>
       <c r="Y15" t="n">
-        <v>618.4695684930275</v>
+        <v>618.4695684930266</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>366.6449423264769</v>
+        <v>824.315167412916</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2985514355805</v>
+        <v>681.9094033619519</v>
       </c>
       <c r="D16" t="n">
-        <v>230.4915151458098</v>
+        <v>551.1023670721813</v>
       </c>
       <c r="E16" t="n">
-        <v>230.4915151458098</v>
+        <v>418.8791603278202</v>
       </c>
       <c r="F16" t="n">
-        <v>230.4915151458098</v>
+        <v>282.9356428257308</v>
       </c>
       <c r="G16" t="n">
-        <v>92.83435435649049</v>
+        <v>145.2784820364114</v>
       </c>
       <c r="H16" t="n">
-        <v>92.83435435649049</v>
+        <v>32.41043719342285</v>
       </c>
       <c r="I16" t="n">
-        <v>32.41043719342287</v>
+        <v>32.41043719342285</v>
       </c>
       <c r="J16" t="n">
-        <v>44.24494452632435</v>
+        <v>44.24494452632433</v>
       </c>
       <c r="K16" t="n">
-        <v>95.64006304299085</v>
+        <v>95.64006304299082</v>
       </c>
       <c r="L16" t="n">
-        <v>298.1117591925525</v>
+        <v>424.3857193983893</v>
       </c>
       <c r="M16" t="n">
-        <v>381.5448041208573</v>
+        <v>507.8187643266941</v>
       </c>
       <c r="N16" t="n">
-        <v>782.6239643894653</v>
+        <v>908.8979245953019</v>
       </c>
       <c r="O16" t="n">
-        <v>1167.642803287337</v>
+        <v>1293.916763493173</v>
       </c>
       <c r="P16" t="n">
-        <v>1480.6694316585</v>
+        <v>1606.943391864336</v>
       </c>
       <c r="Q16" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="R16" t="n">
-        <v>1620.521859671143</v>
+        <v>1604.656803430291</v>
       </c>
       <c r="S16" t="n">
-        <v>1478.600219739435</v>
+        <v>1462.735163498583</v>
       </c>
       <c r="T16" t="n">
-        <v>1271.608564485043</v>
+        <v>1255.74350824419</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.547422976549</v>
+        <v>1255.74350824419</v>
       </c>
       <c r="V16" t="n">
-        <v>772.34928630339</v>
+        <v>1010.545371571032</v>
       </c>
       <c r="W16" t="n">
-        <v>772.34928630339</v>
+        <v>1010.545371571032</v>
       </c>
       <c r="X16" t="n">
-        <v>562.6930325503928</v>
+        <v>1010.545371571032</v>
       </c>
       <c r="Y16" t="n">
-        <v>366.6449423264769</v>
+        <v>983.3272654196411</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1167.645488061059</v>
+        <v>1178.401158671347</v>
       </c>
       <c r="C17" t="n">
-        <v>786.2085057616483</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="D17" t="n">
-        <v>410.4321842420282</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="E17" t="n">
-        <v>410.4321842420282</v>
+        <v>424.7532408524159</v>
       </c>
       <c r="F17" t="n">
-        <v>410.4321842420282</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="G17" t="n">
         <v>32.41043719342287</v>
@@ -5515,16 +5515,16 @@
         <v>32.41043719342287</v>
       </c>
       <c r="J17" t="n">
-        <v>127.7641835428849</v>
+        <v>127.7641835428842</v>
       </c>
       <c r="K17" t="n">
-        <v>291.22383130155</v>
+        <v>291.2238313015494</v>
       </c>
       <c r="L17" t="n">
-        <v>508.9551919894225</v>
+        <v>508.9551919894217</v>
       </c>
       <c r="M17" t="n">
-        <v>764.0494052613878</v>
+        <v>764.0494052613874</v>
       </c>
       <c r="N17" t="n">
         <v>1025.13990199031</v>
@@ -5533,7 +5533,7 @@
         <v>1266.279473591382</v>
       </c>
       <c r="P17" t="n">
-        <v>1458.113613643858</v>
+        <v>1458.113613643857</v>
       </c>
       <c r="Q17" t="n">
         <v>1582.663101322827</v>
@@ -5542,25 +5542,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S17" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T17" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="U17" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="V17" t="n">
-        <v>1549.179059338229</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="W17" t="n">
-        <v>1549.179059338229</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="X17" t="n">
-        <v>1549.179059338229</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="Y17" t="n">
-        <v>1549.179059338229</v>
+        <v>1559.934729948517</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>506.8541442447602</v>
+        <v>506.8541442447598</v>
       </c>
       <c r="C18" t="n">
-        <v>401.5466813810253</v>
+        <v>401.5466813810249</v>
       </c>
       <c r="D18" t="n">
-        <v>313.3371319877371</v>
+        <v>313.3371319877367</v>
       </c>
       <c r="E18" t="n">
-        <v>221.5319243673844</v>
+        <v>221.5319243673841</v>
       </c>
       <c r="F18" t="n">
-        <v>141.2596529372075</v>
+        <v>141.259652937208</v>
       </c>
       <c r="G18" t="n">
-        <v>64.0373707104652</v>
+        <v>64.03737071046571</v>
       </c>
       <c r="H18" t="n">
         <v>32.41043719342287</v>
       </c>
       <c r="I18" t="n">
-        <v>32.41043719342287</v>
+        <v>48.52648125204034</v>
       </c>
       <c r="J18" t="n">
-        <v>81.58124726302137</v>
+        <v>341.3656952962722</v>
       </c>
       <c r="K18" t="n">
-        <v>197.2746974969588</v>
+        <v>457.0591455302096</v>
       </c>
       <c r="L18" t="n">
-        <v>479.2572465271672</v>
+        <v>631.3838959961179</v>
       </c>
       <c r="M18" t="n">
-        <v>880.3364067957752</v>
+        <v>842.6521890323181</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.031844091095</v>
+        <v>1065.347626327638</v>
       </c>
       <c r="O18" t="n">
-        <v>1297.755645075714</v>
+        <v>1260.071427312257</v>
       </c>
       <c r="P18" t="n">
         <v>1446.208770690884</v>
@@ -5627,19 +5627,19 @@
         <v>1434.983906944574</v>
       </c>
       <c r="U18" t="n">
-        <v>1266.391771711665</v>
+        <v>1266.391771711664</v>
       </c>
       <c r="V18" t="n">
-        <v>1081.367853092018</v>
+        <v>1081.367853092017</v>
       </c>
       <c r="W18" t="n">
-        <v>896.822293215666</v>
+        <v>896.8222932156656</v>
       </c>
       <c r="X18" t="n">
-        <v>749.1839197418782</v>
+        <v>749.1839197418777</v>
       </c>
       <c r="Y18" t="n">
-        <v>618.4695684930275</v>
+        <v>618.4695684930271</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>587.750569519102</v>
+        <v>557.5646136210562</v>
       </c>
       <c r="C19" t="n">
-        <v>445.3448054681378</v>
+        <v>415.158849570092</v>
       </c>
       <c r="D19" t="n">
         <v>415.158849570092</v>
@@ -5673,22 +5673,22 @@
         <v>32.41043719342287</v>
       </c>
       <c r="J19" t="n">
-        <v>109.2463081576607</v>
+        <v>44.24494452632435</v>
       </c>
       <c r="K19" t="n">
-        <v>160.6414266743272</v>
+        <v>95.64006304299083</v>
       </c>
       <c r="L19" t="n">
-        <v>238.5213317250653</v>
+        <v>367.6370875312047</v>
       </c>
       <c r="M19" t="n">
-        <v>507.8187643266946</v>
+        <v>768.7162477998127</v>
       </c>
       <c r="N19" t="n">
-        <v>908.8979245953026</v>
+        <v>1169.795408068421</v>
       </c>
       <c r="O19" t="n">
-        <v>1293.916763493174</v>
+        <v>1554.814246966292</v>
       </c>
       <c r="P19" t="n">
         <v>1606.943391864337</v>
@@ -5697,28 +5697,28 @@
         <v>1620.521859671143</v>
       </c>
       <c r="R19" t="n">
-        <v>1604.656803430292</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="S19" t="n">
-        <v>1604.656803430292</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="T19" t="n">
-        <v>1397.665148175899</v>
+        <v>1413.53020441675</v>
       </c>
       <c r="U19" t="n">
-        <v>1397.665148175899</v>
+        <v>1159.469062908257</v>
       </c>
       <c r="V19" t="n">
-        <v>1152.46701150274</v>
+        <v>914.2709262350978</v>
       </c>
       <c r="W19" t="n">
-        <v>1152.46701150274</v>
+        <v>663.8888701312916</v>
       </c>
       <c r="X19" t="n">
-        <v>942.8107577497429</v>
+        <v>663.8888701312916</v>
       </c>
       <c r="Y19" t="n">
-        <v>746.7626675258271</v>
+        <v>663.8888701312916</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>424.753240852416</v>
+        <v>1191.84283024761</v>
       </c>
       <c r="C20" t="n">
-        <v>424.753240852416</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="D20" t="n">
-        <v>424.753240852416</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="E20" t="n">
-        <v>424.753240852416</v>
+        <v>424.7532408524159</v>
       </c>
       <c r="F20" t="n">
         <v>32.41043719342287</v>
@@ -5779,25 +5779,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S20" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T20" t="n">
-        <v>1435.840844263688</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="U20" t="n">
-        <v>1435.840844263688</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="V20" t="n">
-        <v>1435.840844263688</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="W20" t="n">
-        <v>1080.768151786176</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="X20" t="n">
-        <v>1080.768151786176</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="Y20" t="n">
-        <v>806.2868121295861</v>
+        <v>1559.934729948517</v>
       </c>
     </row>
     <row r="21">
@@ -5810,49 +5810,49 @@
         <v>506.8541442447598</v>
       </c>
       <c r="C21" t="n">
-        <v>401.5466813810248</v>
+        <v>401.5466813810249</v>
       </c>
       <c r="D21" t="n">
-        <v>313.3371319877366</v>
+        <v>313.3371319877367</v>
       </c>
       <c r="E21" t="n">
-        <v>221.5319243673839</v>
+        <v>221.5319243673841</v>
       </c>
       <c r="F21" t="n">
-        <v>141.2596529372079</v>
+        <v>141.259652937208</v>
       </c>
       <c r="G21" t="n">
-        <v>64.03737071046552</v>
+        <v>64.03737071046571</v>
       </c>
       <c r="H21" t="n">
         <v>32.41043719342287</v>
       </c>
       <c r="I21" t="n">
-        <v>32.41043719342287</v>
+        <v>48.52648125204034</v>
       </c>
       <c r="J21" t="n">
-        <v>277.2087623043023</v>
+        <v>341.3656952962722</v>
       </c>
       <c r="K21" t="n">
-        <v>392.9022125382397</v>
+        <v>494.7433632936664</v>
       </c>
       <c r="L21" t="n">
-        <v>567.226963004148</v>
+        <v>669.0681137595748</v>
       </c>
       <c r="M21" t="n">
-        <v>968.3061232727559</v>
+        <v>880.336406795775</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.001560568076</v>
+        <v>1103.031844091095</v>
       </c>
       <c r="O21" t="n">
-        <v>1385.725361552694</v>
+        <v>1297.755645075713</v>
       </c>
       <c r="P21" t="n">
-        <v>1534.178487167865</v>
+        <v>1446.208770690884</v>
       </c>
       <c r="Q21" t="n">
-        <v>1613.198195666999</v>
+        <v>1525.228479190018</v>
       </c>
       <c r="R21" t="n">
         <v>1620.521859671143</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.3716499108268</v>
+        <v>681.9094033619519</v>
       </c>
       <c r="C22" t="n">
-        <v>545.9658858598626</v>
+        <v>681.9094033619519</v>
       </c>
       <c r="D22" t="n">
-        <v>415.158849570092</v>
+        <v>551.1023670721813</v>
       </c>
       <c r="E22" t="n">
-        <v>282.9356428257308</v>
+        <v>418.8791603278202</v>
       </c>
       <c r="F22" t="n">
         <v>282.9356428257308</v>
@@ -5910,52 +5910,52 @@
         <v>32.41043719342287</v>
       </c>
       <c r="J22" t="n">
-        <v>44.24494452632435</v>
+        <v>109.2463081576607</v>
       </c>
       <c r="K22" t="n">
-        <v>301.920256628705</v>
+        <v>366.9216202600414</v>
       </c>
       <c r="L22" t="n">
-        <v>693.7792729144662</v>
+        <v>758.7806365458025</v>
       </c>
       <c r="M22" t="n">
-        <v>1013.067232214362</v>
+        <v>1159.85979681441</v>
       </c>
       <c r="N22" t="n">
-        <v>1097.698723808206</v>
+        <v>1484.870167487161</v>
       </c>
       <c r="O22" t="n">
-        <v>1167.642803287337</v>
+        <v>1554.814246966292</v>
       </c>
       <c r="P22" t="n">
-        <v>1480.6694316585</v>
+        <v>1606.943391864337</v>
       </c>
       <c r="Q22" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="R22" t="n">
-        <v>1604.656803430292</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="S22" t="n">
-        <v>1462.735163498584</v>
+        <v>1478.600219739435</v>
       </c>
       <c r="T22" t="n">
-        <v>1255.743508244191</v>
+        <v>1271.608564485042</v>
       </c>
       <c r="U22" t="n">
-        <v>1255.743508244191</v>
+        <v>1017.547422976549</v>
       </c>
       <c r="V22" t="n">
-        <v>1255.743508244191</v>
+        <v>1017.547422976549</v>
       </c>
       <c r="W22" t="n">
-        <v>1043.431838141468</v>
+        <v>1017.547422976549</v>
       </c>
       <c r="X22" t="n">
-        <v>1043.431838141468</v>
+        <v>1017.547422976549</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.3837479175519</v>
+        <v>840.921501368677</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1486.087125932288</v>
+        <v>1962.400528604414</v>
       </c>
       <c r="C23" t="n">
-        <v>1104.650143632878</v>
+        <v>1580.963546305004</v>
       </c>
       <c r="D23" t="n">
-        <v>728.8738221132578</v>
+        <v>1205.187224785384</v>
       </c>
       <c r="E23" t="n">
-        <v>427.1918140306069</v>
+        <v>819.5346176895998</v>
       </c>
       <c r="F23" t="n">
-        <v>427.1918140306069</v>
+        <v>427.1918140306068</v>
       </c>
       <c r="G23" t="n">
         <v>49.17006698200156</v>
@@ -5992,49 +5992,49 @@
         <v>144.523813331463</v>
       </c>
       <c r="K23" t="n">
-        <v>611.4614354399467</v>
+        <v>307.983461090128</v>
       </c>
       <c r="L23" t="n">
-        <v>1219.941014342216</v>
+        <v>525.7148217780004</v>
       </c>
       <c r="M23" t="n">
-        <v>1475.035227614182</v>
+        <v>780.8090350499659</v>
       </c>
       <c r="N23" t="n">
-        <v>1736.125724343104</v>
+        <v>1041.899531778888</v>
       </c>
       <c r="O23" t="n">
-        <v>1977.265295944176</v>
+        <v>1283.03910337996</v>
       </c>
       <c r="P23" t="n">
-        <v>2169.099435996652</v>
+        <v>1885.80062992234</v>
       </c>
       <c r="Q23" t="n">
-        <v>2293.648923675621</v>
+        <v>2420.644590751762</v>
       </c>
       <c r="R23" t="n">
         <v>2458.503349100078</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.503349100078</v>
+        <v>2397.916219377452</v>
       </c>
       <c r="T23" t="n">
-        <v>2458.503349100078</v>
+        <v>2397.916219377452</v>
       </c>
       <c r="U23" t="n">
-        <v>2230.291980040607</v>
+        <v>2283.550474880614</v>
       </c>
       <c r="V23" t="n">
-        <v>2230.291980040607</v>
+        <v>1962.400528604414</v>
       </c>
       <c r="W23" t="n">
-        <v>2230.291980040607</v>
+        <v>1962.400528604414</v>
       </c>
       <c r="X23" t="n">
-        <v>1858.336190596879</v>
+        <v>1962.400528604414</v>
       </c>
       <c r="Y23" t="n">
-        <v>1486.087125932288</v>
+        <v>1962.400528604414</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1115.33476657514</v>
+        <v>695.7394243572542</v>
       </c>
       <c r="C24" t="n">
-        <v>981.3396953240861</v>
+        <v>561.7443531061999</v>
       </c>
       <c r="D24" t="n">
-        <v>864.4425375434785</v>
+        <v>444.8471953255923</v>
       </c>
       <c r="E24" t="n">
-        <v>743.9497215358065</v>
+        <v>324.3543793179203</v>
       </c>
       <c r="F24" t="n">
-        <v>634.989841718311</v>
+        <v>215.394499500425</v>
       </c>
       <c r="G24" t="n">
-        <v>529.0799511042493</v>
+        <v>109.4846088863632</v>
       </c>
       <c r="H24" t="n">
-        <v>468.7654091998876</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I24" t="n">
-        <v>468.7654091998876</v>
+        <v>65.28611104061905</v>
       </c>
       <c r="J24" t="n">
-        <v>761.6046232441195</v>
+        <v>358.1253250848509</v>
       </c>
       <c r="K24" t="n">
-        <v>1370.084202146389</v>
+        <v>913.1295105047153</v>
       </c>
       <c r="L24" t="n">
-        <v>1544.408952612297</v>
+        <v>1087.454260970624</v>
       </c>
       <c r="M24" t="n">
-        <v>1755.677245648497</v>
+        <v>1298.722554006824</v>
       </c>
       <c r="N24" t="n">
-        <v>1978.372682943817</v>
+        <v>1521.417991302144</v>
       </c>
       <c r="O24" t="n">
-        <v>2173.096483928436</v>
+        <v>1716.141792286762</v>
       </c>
       <c r="P24" t="n">
-        <v>2372.1599765968</v>
+        <v>1864.594917901933</v>
       </c>
       <c r="Q24" t="n">
-        <v>2451.179685095934</v>
+        <v>1943.614626401067</v>
       </c>
       <c r="R24" t="n">
-        <v>2458.503349100078</v>
+        <v>2038.908006882192</v>
       </c>
       <c r="S24" t="n">
-        <v>2370.577990412739</v>
+        <v>1950.982648194853</v>
       </c>
       <c r="T24" t="n">
-        <v>2215.59017959887</v>
+        <v>1795.994837380984</v>
       </c>
       <c r="U24" t="n">
-        <v>2018.310435978642</v>
+        <v>1598.715093760755</v>
       </c>
       <c r="V24" t="n">
-        <v>1804.598908971675</v>
+        <v>1385.003566753789</v>
       </c>
       <c r="W24" t="n">
-        <v>1591.365740708004</v>
+        <v>1171.770398490118</v>
       </c>
       <c r="X24" t="n">
-        <v>1415.039758846897</v>
+        <v>995.4444166290108</v>
       </c>
       <c r="Y24" t="n">
-        <v>1255.637799210727</v>
+        <v>836.0424569928408</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.3672214040289</v>
+        <v>795.2322776448805</v>
       </c>
       <c r="C25" t="n">
-        <v>636.9614573530648</v>
+        <v>652.8265135939164</v>
       </c>
       <c r="D25" t="n">
-        <v>506.1544210632942</v>
+        <v>522.0194773041458</v>
       </c>
       <c r="E25" t="n">
-        <v>496.0627072794666</v>
+        <v>435.6387901163989</v>
       </c>
       <c r="F25" t="n">
-        <v>360.1191897773772</v>
+        <v>299.6952726143095</v>
       </c>
       <c r="G25" t="n">
-        <v>222.4620289880578</v>
+        <v>162.0381118249902</v>
       </c>
       <c r="H25" t="n">
-        <v>109.5939841450692</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I25" t="n">
         <v>49.17006698200156</v>
@@ -6171,28 +6171,28 @@
         <v>2458.503349100078</v>
       </c>
       <c r="R25" t="n">
-        <v>2442.638292859227</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="S25" t="n">
-        <v>2300.716652927519</v>
+        <v>2316.58170916837</v>
       </c>
       <c r="T25" t="n">
-        <v>2093.724997673125</v>
+        <v>2109.590053913977</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.663856164632</v>
+        <v>1855.528912405483</v>
       </c>
       <c r="V25" t="n">
-        <v>1594.465719491473</v>
+        <v>1610.330775732325</v>
       </c>
       <c r="W25" t="n">
-        <v>1344.083663387667</v>
+        <v>1359.948719628519</v>
       </c>
       <c r="X25" t="n">
-        <v>1134.42740963467</v>
+        <v>1150.292465875521</v>
       </c>
       <c r="Y25" t="n">
-        <v>938.379319410754</v>
+        <v>954.2443756516055</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.1042430242807</v>
+        <v>2048.282169435589</v>
       </c>
       <c r="C26" t="n">
-        <v>513.1042430242807</v>
+        <v>1638.157578748859</v>
       </c>
       <c r="D26" t="n">
-        <v>513.1042430242807</v>
+        <v>1291.250049947342</v>
       </c>
       <c r="E26" t="n">
-        <v>513.1042430242807</v>
+        <v>876.9098344642387</v>
       </c>
       <c r="F26" t="n">
-        <v>513.1042430242807</v>
+        <v>455.8794224179262</v>
       </c>
       <c r="G26" t="n">
-        <v>339.4022110999146</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="H26" t="n">
         <v>49.17006698200156</v>
@@ -6226,13 +6226,13 @@
         <v>49.17006698200156</v>
       </c>
       <c r="J26" t="n">
-        <v>144.523813331463</v>
+        <v>471.2996402191922</v>
       </c>
       <c r="K26" t="n">
-        <v>738.457102516088</v>
+        <v>1079.779219121461</v>
       </c>
       <c r="L26" t="n">
-        <v>1346.936681418357</v>
+        <v>1297.510579809334</v>
       </c>
       <c r="M26" t="n">
         <v>1602.030894690323</v>
@@ -6262,16 +6262,16 @@
         <v>2458.503349100078</v>
       </c>
       <c r="V26" t="n">
-        <v>2108.665794436559</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="W26" t="n">
-        <v>1724.905493571727</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="X26" t="n">
-        <v>1324.26209574068</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="Y26" t="n">
-        <v>923.3254226887701</v>
+        <v>2458.503349100078</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>49.17006698200156</v>
       </c>
       <c r="J27" t="n">
-        <v>98.34087705160007</v>
+        <v>342.0092810262334</v>
       </c>
       <c r="K27" t="n">
-        <v>214.0343272855375</v>
+        <v>507.1593535009416</v>
       </c>
       <c r="L27" t="n">
-        <v>388.3590777514459</v>
+        <v>681.4841039668499</v>
       </c>
       <c r="M27" t="n">
-        <v>996.8386566537151</v>
+        <v>892.7523970030502</v>
       </c>
       <c r="N27" t="n">
-        <v>1605.318235555984</v>
+        <v>1115.44783429837</v>
       </c>
       <c r="O27" t="n">
-        <v>1800.042036540603</v>
+        <v>1310.171635282989</v>
       </c>
       <c r="P27" t="n">
-        <v>1948.495162155773</v>
+        <v>1458.62476089816</v>
       </c>
       <c r="Q27" t="n">
-        <v>2031.584342878048</v>
+        <v>1943.614626401067</v>
       </c>
       <c r="R27" t="n">
         <v>2038.908006882192</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764.8738314608759</v>
+        <v>1013.200447525411</v>
       </c>
       <c r="C28" t="n">
-        <v>764.8738314608759</v>
+        <v>842.1070750871277</v>
       </c>
       <c r="D28" t="n">
-        <v>605.3791867837858</v>
+        <v>682.6124304100376</v>
       </c>
       <c r="E28" t="n">
-        <v>444.4683716521052</v>
+        <v>521.7016152783571</v>
       </c>
       <c r="F28" t="n">
-        <v>279.8372457626965</v>
+        <v>357.0704893889483</v>
       </c>
       <c r="G28" t="n">
-        <v>279.8372457626965</v>
+        <v>190.7257202123096</v>
       </c>
       <c r="H28" t="n">
-        <v>138.2815925323885</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I28" t="n">
         <v>49.17006698200156</v>
@@ -6387,10 +6387,10 @@
         <v>126.0059379462394</v>
       </c>
       <c r="K28" t="n">
-        <v>383.68125004862</v>
+        <v>383.6812500486201</v>
       </c>
       <c r="L28" t="n">
-        <v>775.5402663343812</v>
+        <v>775.540266334381</v>
       </c>
       <c r="M28" t="n">
         <v>1203.939660776971</v>
@@ -6408,28 +6408,28 @@
         <v>2458.503349100078</v>
       </c>
       <c r="R28" t="n">
-        <v>2413.950684471907</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.34143615288</v>
+        <v>2287.894100781051</v>
       </c>
       <c r="T28" t="n">
-        <v>2007.662172511167</v>
+        <v>2220.614209627299</v>
       </c>
       <c r="U28" t="n">
-        <v>1724.913422615354</v>
+        <v>1937.865459731486</v>
       </c>
       <c r="V28" t="n">
-        <v>1451.027677554876</v>
+        <v>1663.979714671008</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.917399995237</v>
+        <v>1663.979714671008</v>
       </c>
       <c r="X28" t="n">
-        <v>952.5735378549202</v>
+        <v>1425.635852530691</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.5735378549202</v>
+        <v>1200.900153919456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1570.576372705672</v>
+        <v>1395.80125286735</v>
       </c>
       <c r="C29" t="n">
-        <v>1160.451782018943</v>
+        <v>985.6766621806197</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.451782018943</v>
+        <v>985.6766621806197</v>
       </c>
       <c r="E29" t="n">
-        <v>746.1115665358393</v>
+        <v>571.3364466975164</v>
       </c>
       <c r="F29" t="n">
-        <v>746.1115665358393</v>
+        <v>150.306034651204</v>
       </c>
       <c r="G29" t="n">
-        <v>339.4022110999146</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="H29" t="n">
-        <v>49.17006698200157</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I29" t="n">
-        <v>49.17006698200157</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="J29" t="n">
-        <v>144.523813331463</v>
+        <v>428.455532745226</v>
       </c>
       <c r="K29" t="n">
-        <v>307.983461090128</v>
+        <v>591.9151805038911</v>
       </c>
       <c r="L29" t="n">
-        <v>525.7148217780004</v>
+        <v>809.6465411917635</v>
       </c>
       <c r="M29" t="n">
-        <v>780.8090350499659</v>
+        <v>1064.740754463729</v>
       </c>
       <c r="N29" t="n">
-        <v>1041.899531778888</v>
+        <v>1325.831251192651</v>
       </c>
       <c r="O29" t="n">
-        <v>1650.379110681158</v>
+        <v>1566.970822793723</v>
       </c>
       <c r="P29" t="n">
-        <v>2169.099435996652</v>
+        <v>1758.804962846199</v>
       </c>
       <c r="Q29" t="n">
         <v>2293.648923675621</v>
       </c>
       <c r="R29" t="n">
-        <v>2458.503349100079</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="S29" t="n">
-        <v>2458.503349100079</v>
+        <v>2369.228610990132</v>
       </c>
       <c r="T29" t="n">
-        <v>2245.134725305305</v>
+        <v>2155.859987195358</v>
       </c>
       <c r="U29" t="n">
-        <v>1988.235747858514</v>
+        <v>2155.859987195358</v>
       </c>
       <c r="V29" t="n">
-        <v>1980.797552370162</v>
+        <v>1806.022432531839</v>
       </c>
       <c r="W29" t="n">
-        <v>1980.797552370162</v>
+        <v>1806.022432531839</v>
       </c>
       <c r="X29" t="n">
-        <v>1980.797552370162</v>
+        <v>1806.022432531839</v>
       </c>
       <c r="Y29" t="n">
-        <v>1980.797552370162</v>
+        <v>1806.022432531839</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>215.394499500425</v>
       </c>
       <c r="G30" t="n">
-        <v>109.4846088863633</v>
+        <v>109.4846088863632</v>
       </c>
       <c r="H30" t="n">
-        <v>49.17006698200157</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I30" t="n">
-        <v>49.17006698200157</v>
+        <v>65.28611104061905</v>
       </c>
       <c r="J30" t="n">
-        <v>98.34087705160009</v>
+        <v>358.1253250848509</v>
       </c>
       <c r="K30" t="n">
-        <v>214.0343272855375</v>
+        <v>507.1593535009416</v>
       </c>
       <c r="L30" t="n">
-        <v>822.5139061878069</v>
+        <v>681.4841039668499</v>
       </c>
       <c r="M30" t="n">
-        <v>1033.782199224007</v>
+        <v>892.7523970030502</v>
       </c>
       <c r="N30" t="n">
-        <v>1256.477636519327</v>
+        <v>1115.44783429837</v>
       </c>
       <c r="O30" t="n">
-        <v>1451.201437503946</v>
+        <v>1310.171635282989</v>
       </c>
       <c r="P30" t="n">
-        <v>1599.654563119117</v>
+        <v>1458.62476089816</v>
       </c>
       <c r="Q30" t="n">
-        <v>2031.584342878048</v>
+        <v>1943.614626401067</v>
       </c>
       <c r="R30" t="n">
         <v>2038.908006882192</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>682.2245524593636</v>
+        <v>675.7623059104887</v>
       </c>
       <c r="C31" t="n">
-        <v>511.1311800210801</v>
+        <v>675.7623059104887</v>
       </c>
       <c r="D31" t="n">
-        <v>351.6365353439901</v>
+        <v>516.2676612333988</v>
       </c>
       <c r="E31" t="n">
-        <v>190.7257202123096</v>
+        <v>355.3568461017183</v>
       </c>
       <c r="F31" t="n">
         <v>190.7257202123096</v>
@@ -6615,19 +6615,19 @@
         <v>190.7257202123096</v>
       </c>
       <c r="H31" t="n">
-        <v>49.17006698200157</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="I31" t="n">
-        <v>49.17006698200157</v>
+        <v>49.17006698200156</v>
       </c>
       <c r="J31" t="n">
-        <v>126.0059379462394</v>
+        <v>126.0059379462396</v>
       </c>
       <c r="K31" t="n">
-        <v>383.6812500486201</v>
+        <v>383.6812500486203</v>
       </c>
       <c r="L31" t="n">
-        <v>775.5402663343816</v>
+        <v>775.5402663343815</v>
       </c>
       <c r="M31" t="n">
         <v>1203.939660776972</v>
@@ -6642,31 +6642,31 @@
         <v>2318.650921087435</v>
       </c>
       <c r="Q31" t="n">
-        <v>2458.503349100079</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="R31" t="n">
-        <v>2458.503349100079</v>
+        <v>2458.503349100078</v>
       </c>
       <c r="S31" t="n">
         <v>2287.894100781051</v>
       </c>
       <c r="T31" t="n">
-        <v>2052.214837139339</v>
+        <v>2052.214837139338</v>
       </c>
       <c r="U31" t="n">
-        <v>1769.466087243526</v>
+        <v>1769.466087243525</v>
       </c>
       <c r="V31" t="n">
-        <v>1495.580342183048</v>
+        <v>1495.580342183047</v>
       </c>
       <c r="W31" t="n">
         <v>1216.510677691922</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.659957464643</v>
+        <v>978.1668155516049</v>
       </c>
       <c r="Y31" t="n">
-        <v>869.924258853408</v>
+        <v>753.4311169403696</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1705.340570381403</v>
+        <v>1840.784936687398</v>
       </c>
       <c r="C32" t="n">
-        <v>1705.340570381403</v>
+        <v>1459.347954387988</v>
       </c>
       <c r="D32" t="n">
-        <v>1329.564248861783</v>
+        <v>1083.571632868368</v>
       </c>
       <c r="E32" t="n">
         <v>1083.571632868368</v>
       </c>
       <c r="F32" t="n">
-        <v>691.2288292093748</v>
+        <v>691.2288292093747</v>
       </c>
       <c r="G32" t="n">
         <v>313.2070821607694</v>
@@ -6703,49 +6703,49 @@
         <v>473.7921196673664</v>
       </c>
       <c r="K32" t="n">
-        <v>637.2517674260314</v>
+        <v>1113.116131740791</v>
       </c>
       <c r="L32" t="n">
-        <v>854.9831281139038</v>
+        <v>1330.847492428663</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.364726872437</v>
+        <v>1585.941705700629</v>
       </c>
       <c r="N32" t="n">
-        <v>1450.455223601359</v>
+        <v>1860.749696751811</v>
       </c>
       <c r="O32" t="n">
-        <v>1691.594795202431</v>
+        <v>2101.889268352883</v>
       </c>
       <c r="P32" t="n">
-        <v>1883.428935254907</v>
+        <v>2293.723408405359</v>
       </c>
       <c r="Q32" t="n">
-        <v>2418.272896084329</v>
+        <v>2418.272896084328</v>
       </c>
       <c r="R32" t="n">
         <v>2583.127321508786</v>
       </c>
       <c r="S32" t="n">
-        <v>2583.127321508786</v>
+        <v>2522.54019178616</v>
       </c>
       <c r="T32" t="n">
-        <v>2398.446306101331</v>
+        <v>2337.859176378704</v>
       </c>
       <c r="U32" t="n">
-        <v>2398.446306101331</v>
+        <v>2213.034001351989</v>
       </c>
       <c r="V32" t="n">
-        <v>2077.296359825131</v>
+        <v>2213.034001351989</v>
       </c>
       <c r="W32" t="n">
-        <v>2077.296359825131</v>
+        <v>2213.034001351989</v>
       </c>
       <c r="X32" t="n">
-        <v>1705.340570381403</v>
+        <v>2213.034001351989</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.340570381403</v>
+        <v>1840.784936687398</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>51.66254643017572</v>
       </c>
       <c r="I33" t="n">
-        <v>51.66254643017572</v>
+        <v>67.7785904887932</v>
       </c>
       <c r="J33" t="n">
-        <v>100.8333564997742</v>
+        <v>360.617804533025</v>
       </c>
       <c r="K33" t="n">
-        <v>216.5268067337117</v>
+        <v>915.6219899528897</v>
       </c>
       <c r="L33" t="n">
-        <v>390.8515571996199</v>
+        <v>1089.946740418798</v>
       </c>
       <c r="M33" t="n">
-        <v>602.1198502358202</v>
+        <v>1301.215033454998</v>
       </c>
       <c r="N33" t="n">
-        <v>1241.443862309245</v>
+        <v>1523.910470750318</v>
       </c>
       <c r="O33" t="n">
-        <v>1806.603988211918</v>
+        <v>1718.634271734937</v>
       </c>
       <c r="P33" t="n">
-        <v>1955.057113827089</v>
+        <v>1867.087397350108</v>
       </c>
       <c r="Q33" t="n">
-        <v>2034.076822326223</v>
+        <v>1946.107105849241</v>
       </c>
       <c r="R33" t="n">
         <v>2041.400486330367</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.9911938127369</v>
+        <v>903.9911938127364</v>
       </c>
       <c r="C34" t="n">
-        <v>761.5854297617727</v>
+        <v>761.5854297617722</v>
       </c>
       <c r="D34" t="n">
-        <v>630.7783934720021</v>
+        <v>630.7783934720015</v>
       </c>
       <c r="E34" t="n">
-        <v>498.5551867276411</v>
+        <v>498.5551867276403</v>
       </c>
       <c r="F34" t="n">
-        <v>362.6116692255514</v>
+        <v>362.6116692255509</v>
       </c>
       <c r="G34" t="n">
         <v>224.954508436232</v>
@@ -6858,22 +6858,22 @@
         <v>51.66254643017572</v>
       </c>
       <c r="J34" t="n">
-        <v>128.4984173944136</v>
+        <v>138.1630104333001</v>
       </c>
       <c r="K34" t="n">
-        <v>395.838322535681</v>
+        <v>395.8383225356807</v>
       </c>
       <c r="L34" t="n">
-        <v>815.8140638018538</v>
+        <v>787.6973388214419</v>
       </c>
       <c r="M34" t="n">
-        <v>1272.330183224856</v>
+        <v>1216.096733264032</v>
       </c>
       <c r="N34" t="n">
-        <v>1688.995976266285</v>
+        <v>1660.879251285873</v>
       </c>
       <c r="O34" t="n">
-        <v>2102.131540144568</v>
+        <v>2074.014815164156</v>
       </c>
       <c r="P34" t="n">
         <v>2415.158168515731</v>
@@ -6882,25 +6882,25 @@
         <v>2583.127321508786</v>
       </c>
       <c r="R34" t="n">
-        <v>2567.262265267935</v>
+        <v>2567.262265267934</v>
       </c>
       <c r="S34" t="n">
-        <v>2425.340625336227</v>
+        <v>2425.340625336226</v>
       </c>
       <c r="T34" t="n">
-        <v>2218.348970081834</v>
+        <v>2218.348970081833</v>
       </c>
       <c r="U34" t="n">
         <v>1964.28782857334</v>
       </c>
       <c r="V34" t="n">
-        <v>1719.089691900182</v>
+        <v>1719.089691900181</v>
       </c>
       <c r="W34" t="n">
         <v>1468.707635796375</v>
       </c>
       <c r="X34" t="n">
-        <v>1259.051382043378</v>
+        <v>1259.051382043377</v>
       </c>
       <c r="Y34" t="n">
         <v>1063.003291819462</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>675.3919552234272</v>
+        <v>1167.645488061059</v>
       </c>
       <c r="C35" t="n">
-        <v>293.9549729240167</v>
+        <v>786.2085057616483</v>
       </c>
       <c r="D35" t="n">
-        <v>293.9549729240167</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="E35" t="n">
-        <v>293.9549729240167</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="F35" t="n">
-        <v>293.9549729240167</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="G35" t="n">
-        <v>293.9549729240167</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="H35" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I35" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J35" t="n">
-        <v>127.7641835428843</v>
+        <v>127.7641835428842</v>
       </c>
       <c r="K35" t="n">
         <v>291.2238313015494</v>
       </c>
       <c r="L35" t="n">
-        <v>508.9551919894216</v>
+        <v>508.9551919894217</v>
       </c>
       <c r="M35" t="n">
-        <v>764.0494052613869</v>
+        <v>764.0494052613874</v>
       </c>
       <c r="N35" t="n">
-        <v>1025.139901990309</v>
+        <v>1025.13990199031</v>
       </c>
       <c r="O35" t="n">
-        <v>1266.279473591381</v>
+        <v>1266.279473591382</v>
       </c>
       <c r="P35" t="n">
         <v>1458.113613643857</v>
       </c>
       <c r="Q35" t="n">
-        <v>1582.663101322826</v>
+        <v>1582.663101322827</v>
       </c>
       <c r="R35" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="S35" t="n">
-        <v>1559.934729948516</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T35" t="n">
-        <v>1375.253714541061</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="U35" t="n">
-        <v>1147.04234548159</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="V35" t="n">
-        <v>825.8923992053899</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="W35" t="n">
-        <v>825.8923992053899</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="X35" t="n">
-        <v>825.8923992053899</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="Y35" t="n">
-        <v>675.3919552234272</v>
+        <v>1549.179059338229</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>506.8541442447598</v>
+        <v>506.8541442447597</v>
       </c>
       <c r="C36" t="n">
-        <v>401.5466813810248</v>
+        <v>401.5466813810247</v>
       </c>
       <c r="D36" t="n">
         <v>313.3371319877365</v>
       </c>
       <c r="E36" t="n">
-        <v>221.5319243673837</v>
+        <v>221.5319243673838</v>
       </c>
       <c r="F36" t="n">
         <v>141.2596529372076</v>
       </c>
       <c r="G36" t="n">
-        <v>64.03737071046524</v>
+        <v>64.03737071046521</v>
       </c>
       <c r="H36" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I36" t="n">
-        <v>48.52648125204033</v>
+        <v>48.52648125204034</v>
       </c>
       <c r="J36" t="n">
-        <v>97.69729132163884</v>
+        <v>97.69729132163886</v>
       </c>
       <c r="K36" t="n">
-        <v>213.3907415555763</v>
+        <v>330.0870451172106</v>
       </c>
       <c r="L36" t="n">
-        <v>388.8432400308598</v>
+        <v>504.4117955831188</v>
       </c>
       <c r="M36" t="n">
-        <v>789.9224002994677</v>
+        <v>715.680088619319</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.001560568076</v>
+        <v>938.3755259146391</v>
       </c>
       <c r="O36" t="n">
-        <v>1385.725361552694</v>
+        <v>1133.099326899257</v>
       </c>
       <c r="P36" t="n">
         <v>1534.178487167865</v>
@@ -7055,13 +7055,13 @@
         <v>1081.367853092017</v>
       </c>
       <c r="W36" t="n">
-        <v>896.8222932156656</v>
+        <v>896.8222932156655</v>
       </c>
       <c r="X36" t="n">
-        <v>749.1839197418777</v>
+        <v>749.1839197418776</v>
       </c>
       <c r="Y36" t="n">
-        <v>618.4695684930271</v>
+        <v>618.4695684930269</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>306.1640834020453</v>
+        <v>545.6025744753755</v>
       </c>
       <c r="C37" t="n">
-        <v>306.1640834020453</v>
+        <v>545.6025744753755</v>
       </c>
       <c r="D37" t="n">
-        <v>306.1640834020453</v>
+        <v>545.6025744753755</v>
       </c>
       <c r="E37" t="n">
-        <v>306.1640834020453</v>
+        <v>413.3793677310143</v>
       </c>
       <c r="F37" t="n">
-        <v>170.2205658999559</v>
+        <v>277.4358502289249</v>
       </c>
       <c r="G37" t="n">
-        <v>32.5634051106365</v>
+        <v>205.7023991994791</v>
       </c>
       <c r="H37" t="n">
-        <v>32.5634051106365</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="I37" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J37" t="n">
         <v>109.2463081576607</v>
       </c>
       <c r="K37" t="n">
-        <v>366.9216202600413</v>
+        <v>366.9216202600414</v>
       </c>
       <c r="L37" t="n">
-        <v>758.7806365458025</v>
+        <v>444.8015253107795</v>
       </c>
       <c r="M37" t="n">
-        <v>1159.85979681441</v>
+        <v>845.8806855793874</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.596207281323</v>
+        <v>1246.959845847995</v>
       </c>
       <c r="O37" t="n">
-        <v>1428.540286760454</v>
+        <v>1428.540286760455</v>
       </c>
       <c r="P37" t="n">
-        <v>1480.669431658499</v>
+        <v>1480.6694316585</v>
       </c>
       <c r="Q37" t="n">
         <v>1620.521859671143</v>
@@ -7125,22 +7125,22 @@
         <v>1620.521859671143</v>
       </c>
       <c r="T37" t="n">
-        <v>1620.521859671143</v>
+        <v>1413.53020441675</v>
       </c>
       <c r="U37" t="n">
-        <v>1366.460718162649</v>
+        <v>1159.469062908257</v>
       </c>
       <c r="V37" t="n">
-        <v>1121.26258148949</v>
+        <v>914.2709262350978</v>
       </c>
       <c r="W37" t="n">
-        <v>870.8805253856837</v>
+        <v>914.2709262350978</v>
       </c>
       <c r="X37" t="n">
-        <v>661.2242716326864</v>
+        <v>704.6146724821006</v>
       </c>
       <c r="Y37" t="n">
-        <v>465.1761814087704</v>
+        <v>704.6146724821006</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>521.2443130853121</v>
+        <v>993.7201432638921</v>
       </c>
       <c r="C38" t="n">
-        <v>418.0630442892069</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="D38" t="n">
-        <v>418.0630442892069</v>
+        <v>810.4058479481998</v>
       </c>
       <c r="E38" t="n">
-        <v>32.41043719342287</v>
+        <v>424.753240852416</v>
       </c>
       <c r="F38" t="n">
         <v>32.41043719342287</v>
@@ -7174,16 +7174,16 @@
         <v>32.41043719342287</v>
       </c>
       <c r="J38" t="n">
-        <v>127.7641835428842</v>
+        <v>127.7641835428847</v>
       </c>
       <c r="K38" t="n">
-        <v>291.2238313015494</v>
+        <v>291.2238313015497</v>
       </c>
       <c r="L38" t="n">
-        <v>508.9551919894217</v>
+        <v>508.9551919894221</v>
       </c>
       <c r="M38" t="n">
-        <v>764.0494052613874</v>
+        <v>764.0494052613876</v>
       </c>
       <c r="N38" t="n">
         <v>1025.13990199031</v>
@@ -7192,7 +7192,7 @@
         <v>1266.279473591382</v>
       </c>
       <c r="P38" t="n">
-        <v>1458.113613643857</v>
+        <v>1458.113613643858</v>
       </c>
       <c r="Q38" t="n">
         <v>1582.663101322827</v>
@@ -7201,25 +7201,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S38" t="n">
-        <v>1620.521859671143</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T38" t="n">
-        <v>1620.521859671143</v>
+        <v>1375.253714541062</v>
       </c>
       <c r="U38" t="n">
-        <v>1620.521859671143</v>
+        <v>1375.253714541062</v>
       </c>
       <c r="V38" t="n">
-        <v>1620.521859671143</v>
+        <v>1375.253714541062</v>
       </c>
       <c r="W38" t="n">
-        <v>1265.449167193631</v>
+        <v>1375.253714541062</v>
       </c>
       <c r="X38" t="n">
-        <v>893.4933777499027</v>
+        <v>1375.253714541062</v>
       </c>
       <c r="Y38" t="n">
-        <v>521.2443130853121</v>
+        <v>1375.253714541062</v>
       </c>
     </row>
     <row r="39">
@@ -7235,16 +7235,16 @@
         <v>401.5466813810251</v>
       </c>
       <c r="D39" t="n">
-        <v>313.3371319877368</v>
+        <v>313.3371319877369</v>
       </c>
       <c r="E39" t="n">
-        <v>221.5319243673841</v>
+        <v>221.5319243673842</v>
       </c>
       <c r="F39" t="n">
-        <v>141.259652937208</v>
+        <v>141.2596529372081</v>
       </c>
       <c r="G39" t="n">
-        <v>64.03737071046524</v>
+        <v>64.03737071046521</v>
       </c>
       <c r="H39" t="n">
         <v>32.41043719342287</v>
@@ -7253,28 +7253,28 @@
         <v>32.41043719342287</v>
       </c>
       <c r="J39" t="n">
-        <v>81.58124726302138</v>
+        <v>325.2496512376547</v>
       </c>
       <c r="K39" t="n">
-        <v>197.2746974969588</v>
+        <v>440.9431014715921</v>
       </c>
       <c r="L39" t="n">
-        <v>371.5994479628671</v>
+        <v>615.2678519375004</v>
       </c>
       <c r="M39" t="n">
-        <v>582.8677409990673</v>
+        <v>880.336406795775</v>
       </c>
       <c r="N39" t="n">
-        <v>805.5631782943874</v>
+        <v>1103.031844091095</v>
       </c>
       <c r="O39" t="n">
-        <v>1000.286979279006</v>
+        <v>1297.755645075714</v>
       </c>
       <c r="P39" t="n">
-        <v>1148.740104894177</v>
+        <v>1446.208770690884</v>
       </c>
       <c r="Q39" t="n">
-        <v>1549.819265162784</v>
+        <v>1525.228479190018</v>
       </c>
       <c r="R39" t="n">
         <v>1620.521859671143</v>
@@ -7298,7 +7298,7 @@
         <v>749.1839197418781</v>
       </c>
       <c r="Y39" t="n">
-        <v>618.4695684930274</v>
+        <v>618.4695684930273</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.9151995402141</v>
+        <v>258.1845261543783</v>
       </c>
       <c r="C40" t="n">
-        <v>336.5094354892499</v>
+        <v>258.1845261543783</v>
       </c>
       <c r="D40" t="n">
-        <v>205.7023991994792</v>
+        <v>258.1845261543783</v>
       </c>
       <c r="E40" t="n">
-        <v>205.7023991994792</v>
+        <v>125.9613194100171</v>
       </c>
       <c r="F40" t="n">
-        <v>205.7023991994792</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="G40" t="n">
-        <v>205.7023991994792</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="H40" t="n">
-        <v>92.83435435649055</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="I40" t="n">
         <v>32.41043719342287</v>
       </c>
       <c r="J40" t="n">
-        <v>109.2463081576607</v>
+        <v>91.29905968501259</v>
       </c>
       <c r="K40" t="n">
-        <v>366.9216202600414</v>
+        <v>348.9743717873932</v>
       </c>
       <c r="L40" t="n">
-        <v>444.8015253107795</v>
+        <v>740.8333880731544</v>
       </c>
       <c r="M40" t="n">
-        <v>845.8806855793874</v>
+        <v>824.2664330014592</v>
       </c>
       <c r="N40" t="n">
-        <v>1246.959845847995</v>
+        <v>908.8979245953026</v>
       </c>
       <c r="O40" t="n">
-        <v>1316.903925327126</v>
+        <v>1293.916763493174</v>
       </c>
       <c r="P40" t="n">
-        <v>1480.6694316585</v>
+        <v>1606.943391864337</v>
       </c>
       <c r="Q40" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="R40" t="n">
-        <v>1604.656803430292</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="S40" t="n">
-        <v>1462.735163498584</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="T40" t="n">
-        <v>1389.062741129427</v>
+        <v>1413.53020441675</v>
       </c>
       <c r="U40" t="n">
-        <v>1135.001599620934</v>
+        <v>1159.469062908257</v>
       </c>
       <c r="V40" t="n">
-        <v>1135.001599620934</v>
+        <v>914.2709262350978</v>
       </c>
       <c r="W40" t="n">
-        <v>884.6195435171273</v>
+        <v>663.8888701312915</v>
       </c>
       <c r="X40" t="n">
-        <v>674.9632897641301</v>
+        <v>454.2326163782942</v>
       </c>
       <c r="Y40" t="n">
-        <v>478.9151995402141</v>
+        <v>258.1845261543783</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1010.776919334501</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="C41" t="n">
-        <v>629.3399370350908</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="D41" t="n">
-        <v>418.0630442892069</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="E41" t="n">
-        <v>32.41043719342285</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="F41" t="n">
-        <v>32.41043719342285</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="G41" t="n">
-        <v>32.41043719342285</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="H41" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I41" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J41" t="n">
-        <v>127.7641835428843</v>
+        <v>127.7641835428842</v>
       </c>
       <c r="K41" t="n">
         <v>291.2238313015494</v>
       </c>
       <c r="L41" t="n">
-        <v>508.9551919894218</v>
+        <v>508.955191989422</v>
       </c>
       <c r="M41" t="n">
-        <v>764.0494052613873</v>
+        <v>764.0494052613874</v>
       </c>
       <c r="N41" t="n">
         <v>1025.13990199031</v>
@@ -7438,25 +7438,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S41" t="n">
-        <v>1620.521859671143</v>
+        <v>1570.344770180928</v>
       </c>
       <c r="T41" t="n">
-        <v>1620.521859671143</v>
+        <v>1570.344770180928</v>
       </c>
       <c r="U41" t="n">
-        <v>1392.310490611672</v>
+        <v>1342.133401121457</v>
       </c>
       <c r="V41" t="n">
-        <v>1392.310490611672</v>
+        <v>1020.983454845257</v>
       </c>
       <c r="W41" t="n">
-        <v>1392.310490611672</v>
+        <v>665.9107623677446</v>
       </c>
       <c r="X41" t="n">
-        <v>1392.310490611672</v>
+        <v>293.9549729240165</v>
       </c>
       <c r="Y41" t="n">
-        <v>1392.310490611672</v>
+        <v>293.9549729240165</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>506.8541442447589</v>
+        <v>506.8541442447597</v>
       </c>
       <c r="C42" t="n">
-        <v>401.5466813810248</v>
+        <v>401.5466813810247</v>
       </c>
       <c r="D42" t="n">
         <v>313.3371319877365</v>
       </c>
       <c r="E42" t="n">
-        <v>221.5319243673837</v>
+        <v>221.5319243673838</v>
       </c>
       <c r="F42" t="n">
-        <v>141.2596529372076</v>
+        <v>141.2596529372077</v>
       </c>
       <c r="G42" t="n">
-        <v>64.03737071046524</v>
+        <v>64.03737071046534</v>
       </c>
       <c r="H42" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I42" t="n">
-        <v>32.41043719342285</v>
+        <v>48.52648125204034</v>
       </c>
       <c r="J42" t="n">
-        <v>81.58124726302137</v>
+        <v>341.3656952962722</v>
       </c>
       <c r="K42" t="n">
-        <v>197.2746974969588</v>
+        <v>494.7433632936664</v>
       </c>
       <c r="L42" t="n">
-        <v>371.5994479628671</v>
+        <v>669.0681137595748</v>
       </c>
       <c r="M42" t="n">
-        <v>761.9507639887661</v>
+        <v>880.336406795775</v>
       </c>
       <c r="N42" t="n">
-        <v>984.6462012840861</v>
+        <v>1103.031844091095</v>
       </c>
       <c r="O42" t="n">
-        <v>1385.725361552694</v>
+        <v>1297.755645075713</v>
       </c>
       <c r="P42" t="n">
-        <v>1534.178487167865</v>
+        <v>1446.208770690884</v>
       </c>
       <c r="Q42" t="n">
-        <v>1613.198195666999</v>
+        <v>1525.228479190018</v>
       </c>
       <c r="R42" t="n">
         <v>1620.521859671143</v>
@@ -7520,7 +7520,7 @@
         <v>1561.284109371123</v>
       </c>
       <c r="T42" t="n">
-        <v>1434.983906944573</v>
+        <v>1434.983906944574</v>
       </c>
       <c r="U42" t="n">
         <v>1266.391771711664</v>
@@ -7529,13 +7529,13 @@
         <v>1081.367853092017</v>
       </c>
       <c r="W42" t="n">
-        <v>896.8222932156648</v>
+        <v>896.8222932156655</v>
       </c>
       <c r="X42" t="n">
-        <v>749.1839197418769</v>
+        <v>749.1839197418776</v>
       </c>
       <c r="Y42" t="n">
-        <v>618.4695684930263</v>
+        <v>618.4695684930269</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.8162012443871</v>
+        <v>99.17242814765319</v>
       </c>
       <c r="C43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="D43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="E43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="F43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="G43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="H43" t="n">
-        <v>32.41043719342285</v>
+        <v>92.83435435649051</v>
       </c>
       <c r="I43" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J43" t="n">
-        <v>44.24494452632433</v>
+        <v>109.2463081576607</v>
       </c>
       <c r="K43" t="n">
-        <v>95.64006304299082</v>
+        <v>366.9216202600414</v>
       </c>
       <c r="L43" t="n">
-        <v>173.5199680937289</v>
+        <v>614.5594278673169</v>
       </c>
       <c r="M43" t="n">
-        <v>574.5991283623367</v>
+        <v>697.9924727956217</v>
       </c>
       <c r="N43" t="n">
-        <v>782.6239643894646</v>
+        <v>782.6239643894651</v>
       </c>
       <c r="O43" t="n">
-        <v>1167.642803287336</v>
+        <v>1167.642803287337</v>
       </c>
       <c r="P43" t="n">
-        <v>1480.669431658499</v>
+        <v>1480.6694316585</v>
       </c>
       <c r="Q43" t="n">
         <v>1620.521859671143</v>
@@ -7596,25 +7596,25 @@
         <v>1620.521859671143</v>
       </c>
       <c r="S43" t="n">
-        <v>1478.600219739435</v>
+        <v>1620.521859671143</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.608564485042</v>
+        <v>1413.53020441675</v>
       </c>
       <c r="U43" t="n">
-        <v>1017.547422976548</v>
+        <v>1159.469062908257</v>
       </c>
       <c r="V43" t="n">
-        <v>772.3492863033891</v>
+        <v>914.2709262350978</v>
       </c>
       <c r="W43" t="n">
-        <v>529.8763894750282</v>
+        <v>663.8888701312915</v>
       </c>
       <c r="X43" t="n">
-        <v>529.8763894750282</v>
+        <v>454.2326163782942</v>
       </c>
       <c r="Y43" t="n">
-        <v>333.8282992511122</v>
+        <v>258.1845261543783</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>802.7749879010214</v>
+        <v>791.8691665414387</v>
       </c>
       <c r="C44" t="n">
-        <v>802.7749879010214</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="D44" t="n">
-        <v>802.7749879010214</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="E44" t="n">
-        <v>802.7749879010214</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="F44" t="n">
-        <v>410.4321842420283</v>
+        <v>410.4321842420282</v>
       </c>
       <c r="G44" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="H44" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I44" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J44" t="n">
         <v>127.7641835428843</v>
@@ -7654,46 +7654,46 @@
         <v>291.2238313015494</v>
       </c>
       <c r="L44" t="n">
-        <v>508.9551919894217</v>
+        <v>508.9551919894218</v>
       </c>
       <c r="M44" t="n">
-        <v>764.0494052613872</v>
+        <v>764.0494052613873</v>
       </c>
       <c r="N44" t="n">
-        <v>1025.139901990309</v>
+        <v>1025.13990199031</v>
       </c>
       <c r="O44" t="n">
-        <v>1266.279473591381</v>
+        <v>1266.279473591382</v>
       </c>
       <c r="P44" t="n">
         <v>1458.113613643857</v>
       </c>
       <c r="Q44" t="n">
-        <v>1582.663101322826</v>
+        <v>1582.663101322827</v>
       </c>
       <c r="R44" t="n">
         <v>1620.521859671143</v>
       </c>
       <c r="S44" t="n">
-        <v>1559.934729948516</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="T44" t="n">
-        <v>1375.253714541061</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="U44" t="n">
-        <v>1147.04234548159</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="V44" t="n">
-        <v>1147.04234548159</v>
+        <v>1559.934729948517</v>
       </c>
       <c r="W44" t="n">
-        <v>802.7749879010214</v>
+        <v>1536.074020649758</v>
       </c>
       <c r="X44" t="n">
-        <v>802.7749879010214</v>
+        <v>1164.118231206029</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.7749879010214</v>
+        <v>791.8691665414387</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>506.8541442447602</v>
+        <v>506.8541442447596</v>
       </c>
       <c r="C45" t="n">
-        <v>401.5466813810252</v>
+        <v>401.5466813810247</v>
       </c>
       <c r="D45" t="n">
-        <v>313.3371319877369</v>
+        <v>313.3371319877364</v>
       </c>
       <c r="E45" t="n">
-        <v>221.5319243673842</v>
+        <v>221.5319243673838</v>
       </c>
       <c r="F45" t="n">
-        <v>141.2596529372081</v>
+        <v>141.2596529372076</v>
       </c>
       <c r="G45" t="n">
-        <v>64.03737071046524</v>
+        <v>64.03737071046521</v>
       </c>
       <c r="H45" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I45" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J45" t="n">
-        <v>81.58124726302137</v>
+        <v>81.58124726302138</v>
       </c>
       <c r="K45" t="n">
         <v>197.2746974969588</v>
@@ -7742,13 +7742,13 @@
         <v>805.5631782943874</v>
       </c>
       <c r="O45" t="n">
-        <v>1206.642338562995</v>
+        <v>1000.286979279006</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.208770690884</v>
+        <v>1148.740104894177</v>
       </c>
       <c r="Q45" t="n">
-        <v>1525.228479190017</v>
+        <v>1525.228479190018</v>
       </c>
       <c r="R45" t="n">
         <v>1620.521859671143</v>
@@ -7757,22 +7757,22 @@
         <v>1561.284109371123</v>
       </c>
       <c r="T45" t="n">
-        <v>1434.983906944573</v>
+        <v>1434.983906944574</v>
       </c>
       <c r="U45" t="n">
-        <v>1266.391771711665</v>
+        <v>1266.391771711664</v>
       </c>
       <c r="V45" t="n">
-        <v>1081.367853092018</v>
+        <v>1081.367853092017</v>
       </c>
       <c r="W45" t="n">
-        <v>896.8222932156661</v>
+        <v>896.8222932156655</v>
       </c>
       <c r="X45" t="n">
-        <v>749.1839197418783</v>
+        <v>749.1839197418776</v>
       </c>
       <c r="Y45" t="n">
-        <v>618.4695684930275</v>
+        <v>618.4695684930268</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>323.2545414770625</v>
+        <v>544.2522425726327</v>
       </c>
       <c r="C46" t="n">
-        <v>180.8487774260983</v>
+        <v>544.2522425726327</v>
       </c>
       <c r="D46" t="n">
-        <v>180.8487774260983</v>
+        <v>413.445206282862</v>
       </c>
       <c r="E46" t="n">
-        <v>48.62557068173709</v>
+        <v>281.2219995385009</v>
       </c>
       <c r="F46" t="n">
-        <v>32.41043719342285</v>
+        <v>145.2784820364115</v>
       </c>
       <c r="G46" t="n">
-        <v>32.41043719342285</v>
+        <v>145.2784820364115</v>
       </c>
       <c r="H46" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="I46" t="n">
-        <v>32.41043719342285</v>
+        <v>32.41043719342287</v>
       </c>
       <c r="J46" t="n">
-        <v>44.24494452632433</v>
+        <v>109.2463081576607</v>
       </c>
       <c r="K46" t="n">
-        <v>220.2318541418139</v>
+        <v>160.6414266743272</v>
       </c>
       <c r="L46" t="n">
-        <v>298.111759192552</v>
+        <v>241.3631273253674</v>
       </c>
       <c r="M46" t="n">
-        <v>381.5448041208568</v>
+        <v>642.4422875939754</v>
       </c>
       <c r="N46" t="n">
-        <v>782.6239643894646</v>
+        <v>1043.521447862583</v>
       </c>
       <c r="O46" t="n">
-        <v>1167.642803287336</v>
+        <v>1428.540286760455</v>
       </c>
       <c r="P46" t="n">
-        <v>1480.669431658499</v>
+        <v>1480.6694316585</v>
       </c>
       <c r="Q46" t="n">
         <v>1620.521859671143</v>
@@ -7836,22 +7836,22 @@
         <v>1478.600219739435</v>
       </c>
       <c r="T46" t="n">
-        <v>1478.600219739435</v>
+        <v>1293.893576858091</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.539078230941</v>
+        <v>1039.832435349598</v>
       </c>
       <c r="V46" t="n">
-        <v>979.3409415577822</v>
+        <v>794.6342986764389</v>
       </c>
       <c r="W46" t="n">
-        <v>728.9588854539759</v>
+        <v>544.2522425726327</v>
       </c>
       <c r="X46" t="n">
-        <v>519.3026317009785</v>
+        <v>544.2522425726327</v>
       </c>
       <c r="Y46" t="n">
-        <v>323.2545414770625</v>
+        <v>544.2522425726327</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.486626051595891</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.9231658994325</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.34369881017614</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0219360316969</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>112.7640014478065</v>
       </c>
       <c r="M13" t="n">
         <v>320.8546619599022</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>319.6441097724894</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.34369881017608</v>
+        <v>38.06486642773349</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9090,13 +9090,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>125.8502940392157</v>
+        <v>253.3997487925863</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>319.6441097724895</v>
+        <v>319.6441097724893</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.486626051595884</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>108.7452510750507</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>191.7281487196039</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>38.06486642773405</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>196.0778984216927</v>
       </c>
       <c r="M19" t="n">
-        <v>187.7418057306309</v>
+        <v>320.8546619599022</v>
       </c>
       <c r="N19" t="n">
-        <v>319.6441097724895</v>
+        <v>319.6441097724894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>197.6035505467484</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>38.06486642773416</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>191.7281487196038</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9567,19 +9567,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>238.2372872440315</v>
+        <v>320.8546619599022</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>242.8069485645528</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>306.5434084341603</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>394.6951699135323</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>415.0781681716203</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>497.7637663316484</v>
+        <v>443.7482173595222</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>51.121582882014</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>434.8218600262222</v>
+        <v>449.5150819632367</v>
       </c>
       <c r="L26" t="n">
-        <v>394.6951699135323</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>49.92535516062952</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>3.486626051595877</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>49.95618408158666</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>401.2235210768375</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>389.6809511181306</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.110578003172677</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>286.7997165795586</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>371.0505124254519</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>330.188065922241</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>33.67735169914474</v>
       </c>
       <c r="L30" t="n">
-        <v>438.5402307437992</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>356.4748194543412</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>480.6710750654136</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>80.08826816825029</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>13.85605487096973</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>443.7482173595225</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>420.8369442203076</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>374.1781059778333</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>117.8750541026609</v>
       </c>
       <c r="L36" t="n">
-        <v>1.139139403409331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>191.7281487196037</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>180.1855787608967</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>255.1778127812496</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>320.854661959902</v>
+        <v>320.8546619599022</v>
       </c>
       <c r="N37" t="n">
-        <v>115.2574938111814</v>
+        <v>319.6441097724895</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>112.7640014478064</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>3.486626051595877</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>54.34369881017619</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>325.3125775449234</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.019121721429</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>47.52940925120025</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>320.8546619599022</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>319.6441097724895</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>112.7640014478064</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.486626051595877</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>38.06486642773416</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>180.8919424138372</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>208.4397568525146</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>171.4726288449873</v>
       </c>
       <c r="M43" t="n">
-        <v>320.854661959902</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6397418518025</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>208.4397568525146</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>92.03364294213901</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>300.4733997946541</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8502940392153</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.870500606365795</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>320.8546619599022</v>
       </c>
       <c r="N46" t="n">
-        <v>319.6441097724893</v>
+        <v>319.6441097724894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C11" t="n">
-        <v>204.7005353616824</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D11" t="n">
-        <v>372.0185583044239</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.7960810248261</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>388.4193756224032</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>173.3998512308423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.98125842540013</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>182.8342052533804</v>
@@ -23317,16 +23317,16 @@
         <v>225.9292553688763</v>
       </c>
       <c r="V11" t="n">
-        <v>317.938446813438</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>351.521965552737</v>
       </c>
       <c r="X11" t="n">
-        <v>368.2362315492908</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>368.5265740179447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>140.9817064104545</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.9009746769175</v>
       </c>
       <c r="F13" t="n">
         <v>134.5840823270685</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.2805891814261</v>
       </c>
       <c r="H13" t="n">
         <v>111.7393643945587</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.70640567844299</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.40805248770261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>242.7461553064271</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>49.96122332325874</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.0876093216768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>377.7182355643984</v>
+        <v>198.3743335265267</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D14" t="n">
-        <v>372.0185583044239</v>
+        <v>372.0185583044238</v>
       </c>
       <c r="E14" t="n">
-        <v>381.7960810248261</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>388.4193756224032</v>
+        <v>388.4193756224031</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.98125842540011</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>182.8342052533804</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>351.521965552737</v>
+        <v>351.5219655527369</v>
       </c>
       <c r="X14" t="n">
         <v>368.2362315492908</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.0279450062627</v>
+        <v>368.5265740179446</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.4219770266578</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.688779428467</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9009746769175</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.5840823270685</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7393643945587</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>59.81967799143692</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.70640567844298</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.5205300934088</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>247.8782355427682</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.5596912154673</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>167.1416842318002</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13.30725486050085</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>372.0185583044238</v>
       </c>
       <c r="E17" t="n">
-        <v>381.7960810248261</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>388.4193756224032</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H17" t="n">
-        <v>258.9290903732878</v>
+        <v>258.9290903732877</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.98125842540013</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>182.8342052533804</v>
@@ -23791,16 +23791,16 @@
         <v>225.9292553688763</v>
       </c>
       <c r="V17" t="n">
-        <v>247.3090744838526</v>
+        <v>317.9384468134379</v>
       </c>
       <c r="W17" t="n">
-        <v>351.521965552737</v>
+        <v>351.5219655527369</v>
       </c>
       <c r="X17" t="n">
         <v>368.2362315492908</v>
       </c>
       <c r="Y17" t="n">
-        <v>368.5265740179447</v>
+        <v>368.5265740179446</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>52.16096308152474</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.6148695878075</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>59.81967799143695</v>
+        <v>59.81967799143692</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>15.70640567844297</v>
       </c>
       <c r="S19" t="n">
         <v>140.5024235323907</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>251.5205300934088</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.8782355427682</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>207.5596912154673</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>194.0876093216768</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13.30725486050102</v>
       </c>
       <c r="C20" t="n">
-        <v>377.6226124764164</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>372.0185583044239</v>
+        <v>372.0185583044238</v>
       </c>
       <c r="E20" t="n">
-        <v>381.7960810248261</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.98125842540012</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>182.8342052533804</v>
       </c>
       <c r="U20" t="n">
         <v>225.9292553688763</v>
       </c>
       <c r="V20" t="n">
-        <v>317.938446813438</v>
+        <v>317.9384468134379</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>351.5219655527369</v>
       </c>
       <c r="X20" t="n">
         <v>368.2362315492908</v>
       </c>
       <c r="Y20" t="n">
-        <v>96.7900477579206</v>
+        <v>368.5265740179446</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>140.9817064104545</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.5840823270685</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>59.81967799143695</v>
+        <v>59.81967799143692</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.70640567844297</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>251.5205300934088</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>242.7461553064271</v>
       </c>
       <c r="W22" t="n">
-        <v>37.6896821410725</v>
+        <v>247.8782355427682</v>
       </c>
       <c r="X22" t="n">
         <v>207.5596912154673</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>19.22794692988396</v>
       </c>
     </row>
     <row r="23">
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>83.1308930230017</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>388.4193756224032</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.98125842540012</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>182.8342052533804</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>112.7071683170071</v>
       </c>
       <c r="V23" t="n">
-        <v>317.938446813438</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>351.521965552737</v>
+        <v>351.5219655527369</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>368.5265740179446</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.9101780309282</v>
+        <v>45.38409436104811</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>59.81967799143692</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>15.70640567844297</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>56.98083709436804</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>230.677250276443</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>287.3298226767339</v>
       </c>
       <c r="I26" t="n">
         <v>8.431844933976848</v>
@@ -24502,16 +24502,16 @@
         <v>254.3299876723225</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6813214848723</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.22041029488311</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.10713798188915</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>166.7153787630808</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>18.76979306217117</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>302.5176538890551</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>287.3298226767339</v>
       </c>
       <c r="I29" t="n">
         <v>8.431844933976848</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.38199072884629</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3299876723225</v>
       </c>
       <c r="V29" t="n">
-        <v>338.9753655834154</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>108.9305864105219</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6813214848723</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>115.3282104939077</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>377.7182355643985</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C32" t="n">
-        <v>377.6226124764164</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>138.2633911913452</v>
+        <v>381.7960810248261</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.98125842540016</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>225.9292553688764</v>
+        <v>102.3523320924281</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>317.938446813438</v>
       </c>
       <c r="W32" t="n">
         <v>351.521965552737</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y32" t="n">
-        <v>368.5265740179447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>377.7182355643985</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>372.0185583044239</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.7960810248262</v>
+        <v>381.7960810248261</v>
       </c>
       <c r="F35" t="n">
         <v>388.4193756224032</v>
       </c>
       <c r="G35" t="n">
-        <v>374.2415295781193</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>258.9290903732877</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>182.8342052533804</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>225.9292553688764</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>317.938446813438</v>
       </c>
       <c r="W35" t="n">
         <v>351.521965552737</v>
       </c>
       <c r="X35" t="n">
-        <v>368.2362315492909</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.5311344758017</v>
+        <v>357.8784601137597</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>140.9817064104545</v>
       </c>
       <c r="D37" t="n">
-        <v>129.498965926873</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9009746769176</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.26447266227488</v>
       </c>
       <c r="H37" t="n">
-        <v>111.7393643945588</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>59.6682397533955</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.70640567844304</v>
+        <v>15.70640567844301</v>
       </c>
       <c r="S37" t="n">
         <v>140.5024235323908</v>
       </c>
       <c r="T37" t="n">
-        <v>204.9217387018492</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>247.8782355427682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>194.0876093216768</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>377.7182355643985</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4731563682723</v>
+        <v>196.1414601138811</v>
       </c>
       <c r="D38" t="n">
         <v>372.0185583044239</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>388.4193756224032</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>374.2415295781193</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H38" t="n">
-        <v>258.9290903732879</v>
+        <v>258.9290903732877</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.98125842540016</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>182.8342052533804</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>225.9292553688764</v>
@@ -25453,13 +25453,13 @@
         <v>317.938446813438</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>351.521965552737</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>368.2362315492908</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>368.5265740179447</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>157.4219770266578</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>140.9817064104545</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9009746769176</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>134.5840823270685</v>
+        <v>101.7883869240772</v>
       </c>
       <c r="G40" t="n">
         <v>136.2805891814262</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>15.70640567844301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>140.5024235323908</v>
       </c>
       <c r="T40" t="n">
-        <v>131.9860405563845</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>242.7461553064271</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>377.6226124764164</v>
       </c>
       <c r="D41" t="n">
-        <v>162.8544344859989</v>
+        <v>372.0185583044239</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.7960810248261</v>
       </c>
       <c r="F41" t="n">
         <v>388.4193756224032</v>
       </c>
       <c r="G41" t="n">
-        <v>374.2415295781193</v>
+        <v>374.2415295781192</v>
       </c>
       <c r="H41" t="n">
-        <v>258.9290903732879</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.98125842540016</v>
+        <v>10.3059398300869</v>
       </c>
       <c r="T41" t="n">
         <v>182.8342052533804</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>317.938446813438</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>351.521965552737</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>368.2362315492909</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>368.5265740179447</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>134.7070133572034</v>
       </c>
       <c r="D43" t="n">
-        <v>129.498965926873</v>
+        <v>129.4989659268729</v>
       </c>
       <c r="E43" t="n">
         <v>130.9009746769176</v>
@@ -25803,10 +25803,10 @@
         <v>136.2805891814262</v>
       </c>
       <c r="H43" t="n">
-        <v>111.7393643945588</v>
+        <v>111.7393643945587</v>
       </c>
       <c r="I43" t="n">
-        <v>59.819677991437</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.70640567844304</v>
+        <v>15.70640567844301</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>140.5024235323908</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>7.830067682690924</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>207.5596912154673</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.7182355643985</v>
+        <v>377.7182355643984</v>
       </c>
       <c r="C44" t="n">
-        <v>377.6226124764165</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>372.0185583044239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.7960810248262</v>
+        <v>381.7960810248261</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>388.4193756224032</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>258.9290903732879</v>
+        <v>258.9290903732877</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>182.8342052533804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>225.9292553688764</v>
       </c>
       <c r="V44" t="n">
         <v>317.938446813438</v>
       </c>
       <c r="W44" t="n">
-        <v>10.69728154797411</v>
+        <v>327.8998633469655</v>
       </c>
       <c r="X44" t="n">
-        <v>368.2362315492909</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>368.5265740179447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>157.4219770266578</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>140.9817064104545</v>
       </c>
       <c r="D46" t="n">
-        <v>129.498965926873</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>118.5311001736374</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>136.2805891814262</v>
       </c>
       <c r="H46" t="n">
-        <v>111.7393643945588</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.819677991437</v>
+        <v>59.81967799143696</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.70640567844304</v>
+        <v>15.70640567844301</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>204.9217387018492</v>
+        <v>22.0621622493187</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>207.5596912154673</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>194.0876093216768</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>347260.5248110496</v>
+        <v>347260.5248110497</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>347260.5248110496</v>
+        <v>347260.5248110498</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>436787.7142582865</v>
+        <v>436787.7142582864</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>347260.5248110496</v>
+        <v>347260.5248110497</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>347260.5248110497</v>
+        <v>347260.5248110498</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>347260.5248110495</v>
+        <v>347260.5248110497</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615609.2129841712</v>
+        <v>615609.2129841715</v>
       </c>
       <c r="C2" t="n">
-        <v>615609.2129841712</v>
+        <v>615609.2129841711</v>
       </c>
       <c r="D2" t="n">
-        <v>615609.2129841713</v>
+        <v>615609.2129841715</v>
       </c>
       <c r="E2" t="n">
+        <v>383391.7287437926</v>
+      </c>
+      <c r="F2" t="n">
         <v>383391.7287437927</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383391.7287437928</v>
       </c>
       <c r="G2" t="n">
         <v>383391.7287437927</v>
       </c>
       <c r="H2" t="n">
-        <v>383391.7287437928</v>
+        <v>383391.7287437927</v>
       </c>
       <c r="I2" t="n">
-        <v>463408.1376153387</v>
+        <v>463408.1376153388</v>
       </c>
       <c r="J2" t="n">
         <v>422342.6470821216</v>
@@ -26343,10 +26343,10 @@
         <v>422342.6470821215</v>
       </c>
       <c r="L2" t="n">
-        <v>475308.1173371421</v>
+        <v>475308.1173371418</v>
       </c>
       <c r="M2" t="n">
-        <v>383391.7287437924</v>
+        <v>383391.7287437928</v>
       </c>
       <c r="N2" t="n">
         <v>383391.7287437927</v>
@@ -26355,7 +26355,7 @@
         <v>383391.7287437926</v>
       </c>
       <c r="P2" t="n">
-        <v>383391.7287437927</v>
+        <v>383391.7287437926</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>543124.692712326</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30605.88729297995</v>
+        <v>30605.88729297998</v>
       </c>
       <c r="M3" t="n">
-        <v>40988.84950142477</v>
+        <v>40988.84950142497</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>59050.47070174696</v>
       </c>
       <c r="F4" t="n">
-        <v>59050.47070174693</v>
+        <v>59050.47070174696</v>
       </c>
       <c r="G4" t="n">
         <v>59050.47070174696</v>
       </c>
       <c r="H4" t="n">
-        <v>59050.47070174694</v>
+        <v>59050.47070174696</v>
       </c>
       <c r="I4" t="n">
         <v>106309.218765209</v>
       </c>
       <c r="J4" t="n">
-        <v>81636.76619845425</v>
+        <v>81636.76619845422</v>
       </c>
       <c r="K4" t="n">
         <v>81636.76619845422</v>
@@ -26450,16 +26450,16 @@
         <v>113419.2220354543</v>
       </c>
       <c r="M4" t="n">
-        <v>59050.47070174688</v>
+        <v>59050.47070174693</v>
       </c>
       <c r="N4" t="n">
-        <v>59050.4707017469</v>
+        <v>59050.47070174693</v>
       </c>
       <c r="O4" t="n">
-        <v>59050.47070174689</v>
+        <v>59050.47070174692</v>
       </c>
       <c r="P4" t="n">
-        <v>59050.47070174688</v>
+        <v>59050.47070174693</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>37858.21742848377</v>
       </c>
       <c r="F5" t="n">
-        <v>37858.21742848378</v>
+        <v>37858.21742848377</v>
       </c>
       <c r="G5" t="n">
         <v>37858.21742848377</v>
@@ -26496,22 +26496,22 @@
         <v>48207.91490378516</v>
       </c>
       <c r="K5" t="n">
-        <v>48207.91490378517</v>
+        <v>48207.91490378516</v>
       </c>
       <c r="L5" t="n">
         <v>52489.82044841594</v>
       </c>
       <c r="M5" t="n">
-        <v>37858.21742848376</v>
+        <v>37858.21742848377</v>
       </c>
       <c r="N5" t="n">
         <v>37858.21742848377</v>
       </c>
       <c r="O5" t="n">
-        <v>37858.21742848376</v>
+        <v>37858.21742848377</v>
       </c>
       <c r="P5" t="n">
-        <v>37858.21742848376</v>
+        <v>37858.21742848377</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214133.5135136211</v>
+        <v>214124.713827992</v>
       </c>
       <c r="C6" t="n">
-        <v>214133.5135136211</v>
+        <v>214124.7138279917</v>
       </c>
       <c r="D6" t="n">
-        <v>214133.5135136212</v>
+        <v>214124.713827992</v>
       </c>
       <c r="E6" t="n">
-        <v>-256641.6520987639</v>
+        <v>-257261.5504271313</v>
       </c>
       <c r="F6" t="n">
-        <v>286483.0406135621</v>
+        <v>285863.1422851948</v>
       </c>
       <c r="G6" t="n">
-        <v>286483.040613562</v>
+        <v>285863.1422851948</v>
       </c>
       <c r="H6" t="n">
-        <v>286483.0406135621</v>
+        <v>285863.1422851948</v>
       </c>
       <c r="I6" t="n">
-        <v>250794.1638697181</v>
+        <v>250384.8350383814</v>
       </c>
       <c r="J6" t="n">
-        <v>292497.9659798822</v>
+        <v>291980.5700681948</v>
       </c>
       <c r="K6" t="n">
-        <v>292497.9659798822</v>
+        <v>291980.5700681947</v>
       </c>
       <c r="L6" t="n">
-        <v>278793.1875602918</v>
+        <v>278415.1744650648</v>
       </c>
       <c r="M6" t="n">
-        <v>245494.191112137</v>
+        <v>244874.2927837699</v>
       </c>
       <c r="N6" t="n">
-        <v>286483.0406135621</v>
+        <v>285863.1422851948</v>
       </c>
       <c r="O6" t="n">
-        <v>286483.040613562</v>
+        <v>285863.1422851947</v>
       </c>
       <c r="P6" t="n">
-        <v>286483.040613562</v>
+        <v>285863.1422851947</v>
       </c>
     </row>
   </sheetData>
@@ -26697,37 +26697,37 @@
         <v>28.40073230344617</v>
       </c>
       <c r="F2" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G2" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H2" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I2" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="M2" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="N2" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="O2" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="P2" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="3">
@@ -26749,7 +26749,7 @@
         <v>497.1864219020172</v>
       </c>
       <c r="F3" t="n">
-        <v>497.1864219020174</v>
+        <v>497.1864219020173</v>
       </c>
       <c r="G3" t="n">
         <v>497.1864219020173</v>
@@ -26801,7 +26801,7 @@
         <v>405.1304649177857</v>
       </c>
       <c r="F4" t="n">
-        <v>405.1304649177858</v>
+        <v>405.1304649177857</v>
       </c>
       <c r="G4" t="n">
         <v>405.1304649177858</v>
@@ -26816,22 +26816,22 @@
         <v>614.6258372750195</v>
       </c>
       <c r="K4" t="n">
-        <v>614.6258372750196</v>
+        <v>614.6258372750195</v>
       </c>
       <c r="L4" t="n">
-        <v>645.7818303771966</v>
+        <v>645.7818303771965</v>
       </c>
       <c r="M4" t="n">
-        <v>405.1304649177857</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="N4" t="n">
         <v>405.1304649177858</v>
       </c>
       <c r="O4" t="n">
-        <v>405.1304649177857</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="P4" t="n">
-        <v>405.1304649177857</v>
+        <v>405.1304649177858</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.40073230344615</v>
+        <v>28.40073230344617</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>31.15599310217692</v>
       </c>
       <c r="M4" t="n">
-        <v>164.4790994583745</v>
+        <v>164.4790994583753</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.40073230344615</v>
+        <v>28.40073230344617</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I14" t="n">
         <v>8.431844933976848</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="15">
@@ -28405,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.40073230344537</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28456,25 +28456,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y15" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="16">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="S16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I17" t="n">
-        <v>8.431844933976862</v>
+        <v>8.431844933976848</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y17" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F18" t="n">
-        <v>28.40073230344538</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344566</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28693,25 +28693,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="19">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="S19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I20" t="n">
         <v>8.431844933976848</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y20" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H21" t="n">
-        <v>28.40073230344584</v>
+        <v>28.40073230344566</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28930,25 +28930,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y21" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="22">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="S22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I23" t="n">
         <v>8.431844933976848</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y23" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="C25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="D25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="E25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="F25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="G25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="H25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="I25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29243,28 +29243,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="S25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="T25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="U25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="V25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="W25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="X25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.40073230344617</v>
+        <v>28.40073230344618</v>
       </c>
     </row>
     <row r="26">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I32" t="n">
         <v>8.431844933976848</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y32" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>9.76221519079445</v>
       </c>
       <c r="K34" t="n">
-        <v>9.762215190794677</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.40073230344612</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>28.40073230344612</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="O34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="R34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="S34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.40073230344612</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I35" t="n">
         <v>8.431844933976848</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344602</v>
       </c>
       <c r="G36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30115,25 +30115,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>28.40073230344657</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="S37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I38" t="n">
         <v>8.431844933976848</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y38" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30352,25 +30352,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="S40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I41" t="n">
         <v>8.431844933976848</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C42" t="n">
-        <v>28.40073230344694</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344602</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="S43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I44" t="n">
         <v>8.431844933976848</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="C46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="D46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="E46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="F46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="G46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="H46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="I46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="S46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="T46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="U46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="V46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="W46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="X46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.40073230344611</v>
+        <v>28.40073230344614</v>
       </c>
     </row>
   </sheetData>
@@ -32013,22 +32013,22 @@
         <v>356.6400652302783</v>
       </c>
       <c r="O14" t="n">
-        <v>336.7651004753509</v>
+        <v>336.7651004753508</v>
       </c>
       <c r="P14" t="n">
-        <v>287.4212219197487</v>
+        <v>287.4212219197486</v>
       </c>
       <c r="Q14" t="n">
         <v>215.8413677112421</v>
       </c>
       <c r="R14" t="n">
-        <v>125.5533128635281</v>
+        <v>125.553312863528</v>
       </c>
       <c r="S14" t="n">
-        <v>45.54627372499387</v>
+        <v>45.54627372499386</v>
       </c>
       <c r="T14" t="n">
-        <v>8.749481655783239</v>
+        <v>8.749481655783237</v>
       </c>
       <c r="U14" t="n">
         <v>0.1598991507624577</v>
@@ -32080,10 +32080,10 @@
         <v>101.0367237187864</v>
       </c>
       <c r="K15" t="n">
-        <v>172.6878537279866</v>
+        <v>172.6878537279865</v>
       </c>
       <c r="L15" t="n">
-        <v>232.2001303420696</v>
+        <v>232.2001303420695</v>
       </c>
       <c r="M15" t="n">
         <v>270.9665999365994</v>
@@ -32095,7 +32095,7 @@
         <v>254.4421870652711</v>
       </c>
       <c r="P15" t="n">
-        <v>204.21228713934</v>
+        <v>204.2122871393399</v>
       </c>
       <c r="Q15" t="n">
         <v>136.5105058777011</v>
@@ -32104,13 +32104,13 @@
         <v>66.39783951363171</v>
       </c>
       <c r="S15" t="n">
-        <v>19.86400468636833</v>
+        <v>19.86400468636832</v>
       </c>
       <c r="T15" t="n">
-        <v>4.31051246913164</v>
+        <v>4.310512469131639</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07035656913707797</v>
+        <v>0.07035656913707795</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8965656788397034</v>
+        <v>0.8965656788397033</v>
       </c>
       <c r="H16" t="n">
-        <v>7.971283944593005</v>
+        <v>7.971283944593004</v>
       </c>
       <c r="I16" t="n">
         <v>26.962175141834</v>
       </c>
       <c r="J16" t="n">
-        <v>63.38719349396703</v>
+        <v>63.38719349396702</v>
       </c>
       <c r="K16" t="n">
         <v>104.1646306870128</v>
@@ -32165,7 +32165,7 @@
         <v>133.2948646522228</v>
       </c>
       <c r="M16" t="n">
-        <v>140.5407454566637</v>
+        <v>140.5407454566636</v>
       </c>
       <c r="N16" t="n">
         <v>137.1990006537158</v>
@@ -32177,10 +32177,10 @@
         <v>108.4355435571219</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.07514970720463</v>
+        <v>75.07514970720462</v>
       </c>
       <c r="R16" t="n">
-        <v>40.3128531594652</v>
+        <v>40.31285315946519</v>
       </c>
       <c r="S16" t="n">
         <v>15.62469460305192</v>
@@ -32189,7 +32189,7 @@
         <v>3.830780627769641</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0489035824821657</v>
+        <v>0.04890358248216569</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.998739384530721</v>
+        <v>1.998739384530722</v>
       </c>
       <c r="H17" t="n">
-        <v>20.46958972182525</v>
+        <v>20.46958972182526</v>
       </c>
       <c r="I17" t="n">
-        <v>77.05640012212071</v>
+        <v>77.05640012212072</v>
       </c>
       <c r="J17" t="n">
         <v>169.6405068378145</v>
       </c>
       <c r="K17" t="n">
-        <v>254.2471449849999</v>
+        <v>254.247144985</v>
       </c>
       <c r="L17" t="n">
         <v>315.4160654243321</v>
@@ -32247,7 +32247,7 @@
         <v>350.9611469539803</v>
       </c>
       <c r="N17" t="n">
-        <v>356.6400652302782</v>
+        <v>356.6400652302783</v>
       </c>
       <c r="O17" t="n">
         <v>336.7651004753508</v>
@@ -32262,7 +32262,7 @@
         <v>125.553312863528</v>
       </c>
       <c r="S17" t="n">
-        <v>45.54627372499385</v>
+        <v>45.54627372499386</v>
       </c>
       <c r="T17" t="n">
         <v>8.749481655783237</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.069419850883584</v>
+        <v>1.069419850883585</v>
       </c>
       <c r="H18" t="n">
         <v>10.32834434932304</v>
@@ -32326,10 +32326,10 @@
         <v>270.9665999365994</v>
       </c>
       <c r="N18" t="n">
-        <v>278.1382795506389</v>
+        <v>278.138279550639</v>
       </c>
       <c r="O18" t="n">
-        <v>254.442187065271</v>
+        <v>254.4421870652711</v>
       </c>
       <c r="P18" t="n">
         <v>204.2122871393399</v>
@@ -32338,7 +32338,7 @@
         <v>136.5105058777011</v>
       </c>
       <c r="R18" t="n">
-        <v>66.39783951363169</v>
+        <v>66.39783951363171</v>
       </c>
       <c r="S18" t="n">
         <v>19.86400468636832</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8965656788397032</v>
+        <v>0.8965656788397033</v>
       </c>
       <c r="H19" t="n">
-        <v>7.971283944593003</v>
+        <v>7.971283944593004</v>
       </c>
       <c r="I19" t="n">
-        <v>26.96217514183399</v>
+        <v>26.962175141834</v>
       </c>
       <c r="J19" t="n">
-        <v>63.38719349396701</v>
+        <v>63.38719349396702</v>
       </c>
       <c r="K19" t="n">
         <v>104.1646306870128</v>
@@ -32414,19 +32414,19 @@
         <v>108.4355435571219</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.0751497072046</v>
+        <v>75.07514970720462</v>
       </c>
       <c r="R19" t="n">
         <v>40.31285315946519</v>
       </c>
       <c r="S19" t="n">
-        <v>15.62469460305191</v>
+        <v>15.62469460305192</v>
       </c>
       <c r="T19" t="n">
-        <v>3.83078062776964</v>
+        <v>3.830780627769641</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04890358248216568</v>
+        <v>0.04890358248216569</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.27883238244188</v>
       </c>
       <c r="J12" t="n">
         <v>295.7971859032644</v>
       </c>
       <c r="K12" t="n">
-        <v>116.8620709433711</v>
+        <v>243.7852368428037</v>
       </c>
       <c r="L12" t="n">
         <v>176.0856065312204</v>
@@ -35509,10 +35509,10 @@
         <v>149.9526521365361</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.1615861830385</v>
+        <v>79.81788737286232</v>
       </c>
       <c r="R12" t="n">
-        <v>96.25593987992451</v>
+        <v>7.397640408226273</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.95404781101158</v>
+        <v>77.61199087296754</v>
       </c>
       <c r="K13" t="n">
-        <v>122.9361971596428</v>
+        <v>260.2780930327077</v>
       </c>
       <c r="L13" t="n">
-        <v>395.8171881674355</v>
+        <v>191.4305722061277</v>
       </c>
       <c r="M13" t="n">
         <v>405.1304649177857</v>
       </c>
       <c r="N13" t="n">
-        <v>85.48635514529632</v>
+        <v>405.1304649177857</v>
       </c>
       <c r="O13" t="n">
-        <v>388.9079180786581</v>
+        <v>70.65058533245556</v>
       </c>
       <c r="P13" t="n">
         <v>52.65570191721708</v>
@@ -35649,19 +35649,19 @@
         <v>96.31691550450654</v>
       </c>
       <c r="K14" t="n">
-        <v>165.1107553117829</v>
+        <v>165.1107553117828</v>
       </c>
       <c r="L14" t="n">
         <v>219.9306673614873</v>
       </c>
       <c r="M14" t="n">
-        <v>257.6709224969349</v>
+        <v>257.6709224969348</v>
       </c>
       <c r="N14" t="n">
-        <v>263.727774473659</v>
+        <v>263.7277744736589</v>
       </c>
       <c r="O14" t="n">
-        <v>243.5753248495678</v>
+        <v>243.5753248495677</v>
       </c>
       <c r="P14" t="n">
         <v>193.7718586388645</v>
@@ -35670,7 +35670,7 @@
         <v>125.8075633120901</v>
       </c>
       <c r="R14" t="n">
-        <v>38.24117004880455</v>
+        <v>38.24117004880453</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J15" t="n">
         <v>295.7971859032644</v>
@@ -35746,7 +35746,7 @@
         <v>149.9526521365362</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.1615861830385</v>
+        <v>117.8827538005959</v>
       </c>
       <c r="R15" t="n">
         <v>96.25593987992454</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.95404781101161</v>
+        <v>11.9540478110116</v>
       </c>
       <c r="K16" t="n">
-        <v>51.91426112794596</v>
+        <v>51.91426112794595</v>
       </c>
       <c r="L16" t="n">
-        <v>204.516864797537</v>
+        <v>332.0663195509076</v>
       </c>
       <c r="M16" t="n">
-        <v>84.27580295788363</v>
+        <v>84.2758029578836</v>
       </c>
       <c r="N16" t="n">
-        <v>405.1304649177858</v>
+        <v>405.1304649177857</v>
       </c>
       <c r="O16" t="n">
         <v>388.9079180786582</v>
@@ -35825,7 +35825,7 @@
         <v>316.1885135062253</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.2650788006499</v>
+        <v>13.71562404727905</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.31691550450651</v>
+        <v>96.31691550450654</v>
       </c>
       <c r="K17" t="n">
         <v>165.1107553117828</v>
@@ -35901,13 +35901,13 @@
         <v>243.5753248495677</v>
       </c>
       <c r="P17" t="n">
-        <v>193.7718586388644</v>
+        <v>193.7718586388645</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.80756331209</v>
+        <v>125.8075633120901</v>
       </c>
       <c r="R17" t="n">
-        <v>38.24117004880452</v>
+        <v>38.24117004880453</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J18" t="n">
-        <v>49.66748491878636</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K18" t="n">
-        <v>116.8620709433711</v>
+        <v>116.8620709433712</v>
       </c>
       <c r="L18" t="n">
-        <v>284.8308576062712</v>
+        <v>176.0856065312205</v>
       </c>
       <c r="M18" t="n">
-        <v>405.1304649177858</v>
+        <v>213.402316198182</v>
       </c>
       <c r="N18" t="n">
-        <v>224.9448861568889</v>
+        <v>224.944886156889</v>
       </c>
       <c r="O18" t="n">
         <v>196.6907080652711</v>
       </c>
       <c r="P18" t="n">
-        <v>149.9526521365362</v>
+        <v>188.0175185642702</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.81788737286234</v>
+        <v>79.81788737286237</v>
       </c>
       <c r="R18" t="n">
-        <v>96.25593987992451</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.61199087296754</v>
+        <v>11.9540478110116</v>
       </c>
       <c r="K19" t="n">
         <v>51.91426112794595</v>
       </c>
       <c r="L19" t="n">
-        <v>78.66657075832128</v>
+        <v>274.744469180014</v>
       </c>
       <c r="M19" t="n">
-        <v>272.0176086885145</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="N19" t="n">
         <v>405.1304649177858</v>
       </c>
       <c r="O19" t="n">
-        <v>388.9079180786581</v>
+        <v>388.9079180786582</v>
       </c>
       <c r="P19" t="n">
-        <v>316.1885135062253</v>
+        <v>52.65570191721711</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.71562404727904</v>
+        <v>13.71562404727905</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J21" t="n">
-        <v>247.2710354655348</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K21" t="n">
-        <v>116.8620709433712</v>
+        <v>154.9269373711053</v>
       </c>
       <c r="L21" t="n">
         <v>176.0856065312205</v>
       </c>
       <c r="M21" t="n">
-        <v>405.1304649177858</v>
+        <v>213.402316198182</v>
       </c>
       <c r="N21" t="n">
         <v>224.944886156889</v>
@@ -36223,7 +36223,7 @@
         <v>79.81788737286237</v>
       </c>
       <c r="R21" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.9540478110116</v>
+        <v>77.61199087296754</v>
       </c>
       <c r="K22" t="n">
         <v>260.2780930327077</v>
@@ -36287,19 +36287,19 @@
         <v>395.8171881674355</v>
       </c>
       <c r="M22" t="n">
-        <v>322.5130902019151</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="N22" t="n">
-        <v>85.48635514529634</v>
+        <v>328.2933037098492</v>
       </c>
       <c r="O22" t="n">
         <v>70.65058533245559</v>
       </c>
       <c r="P22" t="n">
-        <v>316.1885135062253</v>
+        <v>52.65570191721711</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.2650788006499</v>
+        <v>13.71562404727905</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>96.31691550450654</v>
       </c>
       <c r="K23" t="n">
-        <v>471.6541637459432</v>
+        <v>165.1107553117828</v>
       </c>
       <c r="L23" t="n">
-        <v>614.6258372750195</v>
+        <v>219.9306673614873</v>
       </c>
       <c r="M23" t="n">
         <v>257.6709224969348</v>
@@ -36375,13 +36375,13 @@
         <v>243.5753248495677</v>
       </c>
       <c r="P23" t="n">
-        <v>193.7718586388645</v>
+        <v>608.8500268104848</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.8075633120901</v>
+        <v>540.246425080224</v>
       </c>
       <c r="R23" t="n">
-        <v>166.5196216408663</v>
+        <v>38.24117004880453</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J24" t="n">
         <v>295.7971859032644</v>
       </c>
       <c r="K24" t="n">
-        <v>614.6258372750195</v>
+        <v>560.6102883028933</v>
       </c>
       <c r="L24" t="n">
         <v>176.0856065312205</v>
@@ -36454,13 +36454,13 @@
         <v>196.6907080652711</v>
       </c>
       <c r="P24" t="n">
-        <v>201.0742350185502</v>
+        <v>149.9526521365362</v>
       </c>
       <c r="Q24" t="n">
         <v>79.81788737286237</v>
       </c>
       <c r="R24" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36527,13 +36527,13 @@
         <v>432.7266610531215</v>
       </c>
       <c r="N25" t="n">
-        <v>420.8745384256854</v>
+        <v>420.8745384256857</v>
       </c>
       <c r="O25" t="n">
         <v>388.9079180786582</v>
       </c>
       <c r="P25" t="n">
-        <v>316.1885135062253</v>
+        <v>316.1885135062251</v>
       </c>
       <c r="Q25" t="n">
         <v>141.2650788006499</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>96.31691550450654</v>
+        <v>426.3935083203946</v>
       </c>
       <c r="K26" t="n">
-        <v>599.932615338005</v>
+        <v>614.6258372750195</v>
       </c>
       <c r="L26" t="n">
-        <v>614.6258372750195</v>
+        <v>219.9306673614873</v>
       </c>
       <c r="M26" t="n">
-        <v>257.6709224969348</v>
+        <v>307.5962776575644</v>
       </c>
       <c r="N26" t="n">
         <v>263.7277744736589</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.66748491878638</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K27" t="n">
-        <v>116.8620709433712</v>
+        <v>166.8182550249578</v>
       </c>
       <c r="L27" t="n">
         <v>176.0856065312205</v>
       </c>
       <c r="M27" t="n">
-        <v>614.6258372750195</v>
+        <v>213.402316198182</v>
       </c>
       <c r="N27" t="n">
-        <v>614.6258372750195</v>
+        <v>224.944886156889</v>
       </c>
       <c r="O27" t="n">
         <v>196.6907080652711</v>
@@ -36694,10 +36694,10 @@
         <v>149.9526521365362</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.92846537603505</v>
+        <v>489.8887530332398</v>
       </c>
       <c r="R27" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.61199087296754</v>
+        <v>77.61199087296755</v>
       </c>
       <c r="K28" t="n">
         <v>260.2780930327077</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>96.31691550450654</v>
+        <v>383.1166320840651</v>
       </c>
       <c r="K29" t="n">
         <v>165.1107553117828</v>
@@ -36846,13 +36846,13 @@
         <v>263.7277744736589</v>
       </c>
       <c r="O29" t="n">
-        <v>614.6258372750196</v>
+        <v>243.5753248495677</v>
       </c>
       <c r="P29" t="n">
-        <v>523.9599245611055</v>
+        <v>193.7718586388645</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.8075633120901</v>
+        <v>540.246425080224</v>
       </c>
       <c r="R29" t="n">
         <v>166.5196216408663</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J30" t="n">
-        <v>49.66748491878638</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K30" t="n">
-        <v>116.8620709433712</v>
+        <v>150.5394226425159</v>
       </c>
       <c r="L30" t="n">
-        <v>614.6258372750196</v>
+        <v>176.0856065312205</v>
       </c>
       <c r="M30" t="n">
         <v>213.402316198182</v>
@@ -36931,10 +36931,10 @@
         <v>149.9526521365362</v>
       </c>
       <c r="Q30" t="n">
-        <v>436.2927068272036</v>
+        <v>489.8887530332398</v>
       </c>
       <c r="R30" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>426.3935083203946</v>
       </c>
       <c r="K32" t="n">
-        <v>165.1107553117828</v>
+        <v>645.7818303771965</v>
       </c>
       <c r="L32" t="n">
         <v>219.9306673614873</v>
       </c>
       <c r="M32" t="n">
-        <v>337.7591906651851</v>
+        <v>257.6709224969348</v>
       </c>
       <c r="N32" t="n">
-        <v>263.7277744736589</v>
+        <v>277.5838293446287</v>
       </c>
       <c r="O32" t="n">
         <v>243.5753248495677</v>
@@ -37089,7 +37089,7 @@
         <v>193.7718586388645</v>
       </c>
       <c r="Q32" t="n">
-        <v>540.246425080224</v>
+        <v>125.8075633120901</v>
       </c>
       <c r="R32" t="n">
         <v>166.5196216408663</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J33" t="n">
-        <v>49.66748491878638</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K33" t="n">
-        <v>116.8620709433712</v>
+        <v>560.6102883028937</v>
       </c>
       <c r="L33" t="n">
         <v>176.0856065312205</v>
@@ -37159,10 +37159,10 @@
         <v>213.402316198182</v>
       </c>
       <c r="N33" t="n">
-        <v>645.7818303771966</v>
+        <v>224.944886156889</v>
       </c>
       <c r="O33" t="n">
-        <v>570.8688140431044</v>
+        <v>196.6907080652711</v>
       </c>
       <c r="P33" t="n">
         <v>149.9526521365362</v>
@@ -37171,7 +37171,7 @@
         <v>79.81788737286237</v>
       </c>
       <c r="R33" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.61199087296754</v>
+        <v>87.37420606376199</v>
       </c>
       <c r="K34" t="n">
-        <v>270.0403082235024</v>
+        <v>260.2780930327077</v>
       </c>
       <c r="L34" t="n">
-        <v>424.2179204708816</v>
+        <v>395.8171881674355</v>
       </c>
       <c r="M34" t="n">
-        <v>461.1273933565676</v>
+        <v>432.7266610531215</v>
       </c>
       <c r="N34" t="n">
-        <v>420.8745384256857</v>
+        <v>449.2752707291319</v>
       </c>
       <c r="O34" t="n">
         <v>417.3086503821043</v>
       </c>
       <c r="P34" t="n">
-        <v>316.1885135062253</v>
+        <v>344.5892458096714</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.665811104096</v>
+        <v>169.6658111040961</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>49.66748491878638</v>
       </c>
       <c r="K36" t="n">
-        <v>116.8620709433712</v>
+        <v>234.737125046032</v>
       </c>
       <c r="L36" t="n">
-        <v>177.2247459346298</v>
+        <v>176.0856065312205</v>
       </c>
       <c r="M36" t="n">
-        <v>405.1304649177857</v>
+        <v>213.402316198182</v>
       </c>
       <c r="N36" t="n">
-        <v>405.1304649177857</v>
+        <v>224.944886156889</v>
       </c>
       <c r="O36" t="n">
         <v>196.6907080652711</v>
       </c>
       <c r="P36" t="n">
-        <v>149.9526521365362</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="Q36" t="n">
         <v>79.81788737286237</v>
@@ -37469,16 +37469,16 @@
         <v>260.2780930327077</v>
       </c>
       <c r="L37" t="n">
-        <v>395.8171881674355</v>
+        <v>78.66657075832131</v>
       </c>
       <c r="M37" t="n">
-        <v>405.1304649177857</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="N37" t="n">
-        <v>200.7438489564777</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="O37" t="n">
-        <v>70.65058533245559</v>
+        <v>183.414586780262</v>
       </c>
       <c r="P37" t="n">
         <v>52.65570191721711</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>96.31691550450654</v>
+        <v>96.31691550450689</v>
       </c>
       <c r="K38" t="n">
         <v>165.1107553117828</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>49.66748491878638</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K39" t="n">
         <v>116.8620709433712</v>
@@ -37630,7 +37630,7 @@
         <v>176.0856065312205</v>
       </c>
       <c r="M39" t="n">
-        <v>213.402316198182</v>
+        <v>267.7460150083582</v>
       </c>
       <c r="N39" t="n">
         <v>224.944886156889</v>
@@ -37642,10 +37642,10 @@
         <v>149.9526521365362</v>
       </c>
       <c r="Q39" t="n">
-        <v>405.1304649177858</v>
+        <v>79.81788737286237</v>
       </c>
       <c r="R39" t="n">
-        <v>71.4167621296553</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.61199087296754</v>
+        <v>59.48345706221185</v>
       </c>
       <c r="K40" t="n">
         <v>260.2780930327077</v>
       </c>
       <c r="L40" t="n">
-        <v>78.66657075832131</v>
+        <v>395.8171881674355</v>
       </c>
       <c r="M40" t="n">
-        <v>405.1304649177858</v>
+        <v>84.2758029578836</v>
       </c>
       <c r="N40" t="n">
-        <v>405.1304649177858</v>
+        <v>85.48635514529634</v>
       </c>
       <c r="O40" t="n">
-        <v>70.65058533245559</v>
+        <v>388.9079180786582</v>
       </c>
       <c r="P40" t="n">
-        <v>165.4197033650235</v>
+        <v>316.1885135062253</v>
       </c>
       <c r="Q40" t="n">
-        <v>141.2650788006499</v>
+        <v>13.71562404727905</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>125.8075633120901</v>
       </c>
       <c r="R41" t="n">
-        <v>38.24117004880413</v>
+        <v>38.24117004880453</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.2788323824419</v>
       </c>
       <c r="J42" t="n">
-        <v>49.66748491878638</v>
+        <v>295.7971859032644</v>
       </c>
       <c r="K42" t="n">
-        <v>116.8620709433712</v>
+        <v>154.9269373711053</v>
       </c>
       <c r="L42" t="n">
         <v>176.0856065312205</v>
       </c>
       <c r="M42" t="n">
-        <v>394.2942586120192</v>
+        <v>213.402316198182</v>
       </c>
       <c r="N42" t="n">
         <v>224.944886156889</v>
       </c>
       <c r="O42" t="n">
-        <v>405.1304649177857</v>
+        <v>196.6907080652711</v>
       </c>
       <c r="P42" t="n">
         <v>149.9526521365362</v>
@@ -37882,7 +37882,7 @@
         <v>79.81788737286237</v>
       </c>
       <c r="R42" t="n">
-        <v>7.397640408226302</v>
+        <v>96.25593987992454</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.9540478110116</v>
+        <v>77.61199087296754</v>
       </c>
       <c r="K43" t="n">
-        <v>51.91426112794595</v>
+        <v>260.2780930327077</v>
       </c>
       <c r="L43" t="n">
-        <v>78.66657075832131</v>
+        <v>250.1391996033086</v>
       </c>
       <c r="M43" t="n">
-        <v>405.1304649177857</v>
+        <v>84.2758029578836</v>
       </c>
       <c r="N43" t="n">
-        <v>210.1260969970989</v>
+        <v>85.48635514529634</v>
       </c>
       <c r="O43" t="n">
         <v>388.9079180786582</v>
@@ -38040,7 +38040,7 @@
         <v>125.8075633120901</v>
       </c>
       <c r="R44" t="n">
-        <v>38.24117004880453</v>
+        <v>38.24117004880459</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>224.944886156889</v>
       </c>
       <c r="O45" t="n">
-        <v>405.1304649177857</v>
+        <v>196.6907080652711</v>
       </c>
       <c r="P45" t="n">
-        <v>241.9862950786752</v>
+        <v>149.9526521365362</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.81788737286237</v>
+        <v>380.2912871675165</v>
       </c>
       <c r="R45" t="n">
         <v>96.25593987992454</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.9540478110116</v>
+        <v>77.61199087296754</v>
       </c>
       <c r="K46" t="n">
-        <v>177.7645551671612</v>
+        <v>51.91426112794595</v>
       </c>
       <c r="L46" t="n">
-        <v>78.66657075832131</v>
+        <v>81.53707136468711</v>
       </c>
       <c r="M46" t="n">
-        <v>84.2758029578836</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="N46" t="n">
-        <v>405.1304649177857</v>
+        <v>405.1304649177858</v>
       </c>
       <c r="O46" t="n">
         <v>388.9079180786582</v>
       </c>
       <c r="P46" t="n">
-        <v>316.1885135062253</v>
+        <v>52.65570191721711</v>
       </c>
       <c r="Q46" t="n">
         <v>141.2650788006499</v>
